--- a/NMDS/ITS2/ITS2_family_reads.xlsx
+++ b/NMDS/ITS2/ITS2_family_reads.xlsx
@@ -12,348 +12,342 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="155">
   <si>
     <t xml:space="preserve">Samples</t>
   </si>
   <si>
-    <t xml:space="preserve">Acrospermales_fam_Incertae_sedis </t>
+    <t xml:space="preserve">Acrospermales_fam_Incertae_sedis</t>
   </si>
   <si>
-    <t xml:space="preserve">Agaricomycetes_fam_Incertae_sedis </t>
+    <t xml:space="preserve">Agaricomycetes_fam_Incertae_sedis</t>
   </si>
   <si>
-    <t xml:space="preserve">Ajellomycetaceae </t>
+    <t xml:space="preserve">Ajellomycetaceae</t>
   </si>
   <si>
-    <t xml:space="preserve">Amniculicolaceae </t>
+    <t xml:space="preserve">Amniculicolaceae</t>
   </si>
   <si>
-    <t xml:space="preserve">Apiosporaceae </t>
+    <t xml:space="preserve">Apiosporaceae</t>
   </si>
   <si>
-    <t xml:space="preserve">Arachnomycetaceae </t>
+    <t xml:space="preserve">Arachnomycetaceae</t>
   </si>
   <si>
-    <t xml:space="preserve">Ascobolaceae </t>
+    <t xml:space="preserve">Ascobolaceae</t>
   </si>
   <si>
-    <t xml:space="preserve">Aspergillaceae </t>
+    <t xml:space="preserve">Aspergillaceae</t>
   </si>
   <si>
-    <t xml:space="preserve">Aureobasidiaceae </t>
+    <t xml:space="preserve">Aureobasidiaceae</t>
   </si>
   <si>
-    <t xml:space="preserve">Auriculariales_fam_Incertae_sedis </t>
+    <t xml:space="preserve">Auriculariales_fam_Incertae_sedis</t>
   </si>
   <si>
-    <t xml:space="preserve">Biatriosporaceae </t>
+    <t xml:space="preserve">Biatriosporaceae</t>
   </si>
   <si>
-    <t xml:space="preserve">Bionectriaceae </t>
+    <t xml:space="preserve">Bionectriaceae</t>
   </si>
   <si>
-    <t xml:space="preserve">Botryosphaeriaceae </t>
+    <t xml:space="preserve">Botryosphaeriaceae</t>
   </si>
   <si>
-    <t xml:space="preserve">Bulleribasidiaceae </t>
+    <t xml:space="preserve">Bulleribasidiaceae</t>
   </si>
   <si>
-    <t xml:space="preserve">Chaetomiaceae </t>
+    <t xml:space="preserve">Chaetomiaceae</t>
   </si>
   <si>
-    <t xml:space="preserve">Cladosporiaceae </t>
+    <t xml:space="preserve">Cladosporiaceae</t>
   </si>
   <si>
-    <t xml:space="preserve">Clavicipitaceae </t>
+    <t xml:space="preserve">Clavicipitaceae</t>
   </si>
   <si>
-    <t xml:space="preserve">Coniothyriaceae </t>
+    <t xml:space="preserve">Coniothyriaceae</t>
   </si>
   <si>
-    <t xml:space="preserve">Cordycipitaceae </t>
+    <t xml:space="preserve">Cordycipitaceae</t>
   </si>
   <si>
-    <t xml:space="preserve">Cucurbitariaceae </t>
+    <t xml:space="preserve">Cucurbitariaceae</t>
   </si>
   <si>
-    <t xml:space="preserve">Cunninghamellaceae </t>
+    <t xml:space="preserve">Cunninghamellaceae</t>
   </si>
   <si>
-    <t xml:space="preserve">Cyphellophoraceae </t>
+    <t xml:space="preserve">Cyphellophoraceae</t>
   </si>
   <si>
-    <t xml:space="preserve">Diaporthaceae </t>
+    <t xml:space="preserve">Diaporthaceae</t>
   </si>
   <si>
-    <t xml:space="preserve">Diatrypaceae </t>
+    <t xml:space="preserve">Diatrypaceae</t>
   </si>
   <si>
-    <t xml:space="preserve">Dictyosporiaceae </t>
+    <t xml:space="preserve">Dictyosporiaceae</t>
   </si>
   <si>
-    <t xml:space="preserve">Didymellaceae </t>
+    <t xml:space="preserve">Didymellaceae</t>
   </si>
   <si>
-    <t xml:space="preserve">Didymosphaeriaceae </t>
+    <t xml:space="preserve">Didymosphaeriaceae</t>
   </si>
   <si>
-    <t xml:space="preserve">Dipodascaceae </t>
+    <t xml:space="preserve">Dipodascaceae</t>
   </si>
   <si>
-    <t xml:space="preserve">Dissoconiaceae </t>
+    <t xml:space="preserve">Dissoconiaceae</t>
   </si>
   <si>
-    <t xml:space="preserve">Dothideaceae </t>
+    <t xml:space="preserve">Dothideaceae</t>
   </si>
   <si>
-    <t xml:space="preserve">Dothideomycetes_fam_Incertae_sedis </t>
+    <t xml:space="preserve">Dothideomycetes_fam_Incertae_sedis</t>
   </si>
   <si>
-    <t xml:space="preserve">Dothioraceae </t>
+    <t xml:space="preserve">Dothioraceae</t>
   </si>
   <si>
-    <t xml:space="preserve">Eremomycetaceae </t>
+    <t xml:space="preserve">Eremomycetaceae</t>
   </si>
   <si>
-    <t xml:space="preserve">Erysiphaceae </t>
+    <t xml:space="preserve">Erysiphaceae</t>
   </si>
   <si>
-    <t xml:space="preserve">Glomerellaceae </t>
+    <t xml:space="preserve">Glomerellaceae</t>
   </si>
   <si>
-    <t xml:space="preserve">Gymnoascaceae </t>
+    <t xml:space="preserve">Gymnoascaceae</t>
   </si>
   <si>
-    <t xml:space="preserve">Halosphaeriaceae </t>
+    <t xml:space="preserve">Halosphaeriaceae</t>
   </si>
   <si>
-    <t xml:space="preserve">Helotiaceae </t>
+    <t xml:space="preserve">Helotiaceae</t>
   </si>
   <si>
-    <t xml:space="preserve">Helotiales_fam_Incertae_sedis </t>
+    <t xml:space="preserve">Helotiales_fam_Incertae_sedis</t>
   </si>
   <si>
-    <t xml:space="preserve">Herpotrichiellaceae </t>
+    <t xml:space="preserve">Herpotrichiellaceae</t>
   </si>
   <si>
-    <t xml:space="preserve">Holtermanniales_fam_Incertae_sedis </t>
+    <t xml:space="preserve">Holtermanniales_fam_Incertae_sedis</t>
   </si>
   <si>
-    <t xml:space="preserve">Hyaloscyphaceae </t>
+    <t xml:space="preserve">Hyaloscyphaceae</t>
   </si>
   <si>
-    <t xml:space="preserve">Hydnodontaceae </t>
+    <t xml:space="preserve">Hydnodontaceae</t>
   </si>
   <si>
-    <t xml:space="preserve">Hypocreaceae </t>
+    <t xml:space="preserve">Hypocreaceae</t>
   </si>
   <si>
-    <t xml:space="preserve">Hypocreales_fam_Incertae_sedis </t>
+    <t xml:space="preserve">Hypocreales_fam_Incertae_sedis</t>
   </si>
   <si>
-    <t xml:space="preserve">Hyponectriaceae </t>
+    <t xml:space="preserve">Hyponectriaceae</t>
   </si>
   <si>
-    <t xml:space="preserve">Kondoaceae </t>
+    <t xml:space="preserve">Kondoaceae</t>
   </si>
   <si>
-    <t xml:space="preserve">Lasiosphaeriaceae </t>
+    <t xml:space="preserve">Lasiosphaeriaceae</t>
   </si>
   <si>
-    <t xml:space="preserve">Lentitheciaceae </t>
+    <t xml:space="preserve">Lentitheciaceae</t>
   </si>
   <si>
-    <t xml:space="preserve">Leptosphaeriaceae </t>
+    <t xml:space="preserve">Leptosphaeriaceae</t>
   </si>
   <si>
-    <t xml:space="preserve">Lindgomycetaceae </t>
+    <t xml:space="preserve">Lindgomycetaceae</t>
   </si>
   <si>
-    <t xml:space="preserve">Lophiostomataceae </t>
+    <t xml:space="preserve">Lophiostomataceae</t>
   </si>
   <si>
-    <t xml:space="preserve">Magnaporthaceae </t>
+    <t xml:space="preserve">Magnaporthaceae</t>
   </si>
   <si>
-    <t xml:space="preserve">Massarinaceae </t>
+    <t xml:space="preserve">Massarinaceae</t>
   </si>
   <si>
-    <t xml:space="preserve">Melanommataceae </t>
+    <t xml:space="preserve">Melanommataceae</t>
   </si>
   <si>
-    <t xml:space="preserve">Melanosporaceae </t>
+    <t xml:space="preserve">Melanosporaceae</t>
   </si>
   <si>
-    <t xml:space="preserve">Microascaceae </t>
+    <t xml:space="preserve">Microascaceae</t>
   </si>
   <si>
-    <t xml:space="preserve">Microascales_fam_Incertae_sedis </t>
+    <t xml:space="preserve">Microascales_fam_Incertae_sedis</t>
   </si>
   <si>
-    <t xml:space="preserve">Microdochiaceae </t>
+    <t xml:space="preserve">Microdochiaceae</t>
   </si>
   <si>
-    <t xml:space="preserve">Mortierellaceae </t>
+    <t xml:space="preserve">Mortierellaceae</t>
   </si>
   <si>
-    <t xml:space="preserve">Mucoraceae </t>
+    <t xml:space="preserve">Mucoraceae</t>
   </si>
   <si>
-    <t xml:space="preserve">Mycosphaerellaceae </t>
+    <t xml:space="preserve">Mycosphaerellaceae</t>
   </si>
   <si>
-    <t xml:space="preserve">Myrmecridiaceae </t>
+    <t xml:space="preserve">Myrmecridiaceae</t>
   </si>
   <si>
-    <t xml:space="preserve">Mytilinidiales_fam_Incertae_sedis </t>
+    <t xml:space="preserve">Mytilinidiales_fam_Incertae_sedis</t>
   </si>
   <si>
-    <t xml:space="preserve">Myxotrichaceae </t>
+    <t xml:space="preserve">Myxotrichaceae</t>
   </si>
   <si>
-    <t xml:space="preserve">Nectriaceae </t>
+    <t xml:space="preserve">Nectriaceae</t>
   </si>
   <si>
-    <t xml:space="preserve">Nectriaceae .1</t>
+    <t xml:space="preserve">Neodevriesiaceae</t>
   </si>
   <si>
-    <t xml:space="preserve">Neodevriesiaceae </t>
+    <t xml:space="preserve">Olpidiaceae</t>
   </si>
   <si>
-    <t xml:space="preserve">Olpidiaceae </t>
+    <t xml:space="preserve">Onygenaceae</t>
   </si>
   <si>
-    <t xml:space="preserve">Onygenaceae </t>
+    <t xml:space="preserve">Onygenales_fam_Incertae_sedis</t>
   </si>
   <si>
-    <t xml:space="preserve">Onygenales_fam_Incertae_sedis </t>
+    <t xml:space="preserve">Ophiocordycipitaceae</t>
   </si>
   <si>
-    <t xml:space="preserve">Ophiocordycipitaceae </t>
+    <t xml:space="preserve">Orbiliaceae</t>
   </si>
   <si>
-    <t xml:space="preserve">Orbiliaceae </t>
+    <t xml:space="preserve">Periconiaceae</t>
   </si>
   <si>
-    <t xml:space="preserve">Periconiaceae </t>
+    <t xml:space="preserve">Pezizaceae</t>
   </si>
   <si>
-    <t xml:space="preserve">Pezizaceae </t>
+    <t xml:space="preserve">Phaeosphaeriaceae</t>
   </si>
   <si>
-    <t xml:space="preserve">Phaeosphaeriaceae </t>
+    <t xml:space="preserve">Phomatosporaceae</t>
   </si>
   <si>
-    <t xml:space="preserve">Phomatosporaceae </t>
+    <t xml:space="preserve">Pichiaceae</t>
   </si>
   <si>
-    <t xml:space="preserve">Pichiaceae </t>
+    <t xml:space="preserve">Plectosphaerellaceae</t>
   </si>
   <si>
-    <t xml:space="preserve">Plectosphaerellaceae </t>
+    <t xml:space="preserve">Pleosporaceae</t>
   </si>
   <si>
-    <t xml:space="preserve">Pleosporaceae </t>
+    <t xml:space="preserve">Pleosporales_fam_Incertae_sedis</t>
   </si>
   <si>
-    <t xml:space="preserve">Pleosporales_fam_Incertae_sedis </t>
+    <t xml:space="preserve">Pleurotheciaceae</t>
   </si>
   <si>
-    <t xml:space="preserve">Pleurotheciaceae </t>
+    <t xml:space="preserve">Powellomycetaceae</t>
   </si>
   <si>
-    <t xml:space="preserve">Powellomycetaceae </t>
+    <t xml:space="preserve">Psathyrellaceae</t>
   </si>
   <si>
-    <t xml:space="preserve">Psathyrellaceae </t>
+    <t xml:space="preserve">Pseudeurotiaceae</t>
   </si>
   <si>
-    <t xml:space="preserve">Pseudeurotiaceae </t>
+    <t xml:space="preserve">Pyronemataceae</t>
   </si>
   <si>
-    <t xml:space="preserve">Pyronemataceae </t>
+    <t xml:space="preserve">Pyxidiophoraceae</t>
   </si>
   <si>
-    <t xml:space="preserve">Pyxidiophoraceae </t>
+    <t xml:space="preserve">Rhizophlyctidaceae</t>
   </si>
   <si>
-    <t xml:space="preserve">Rhizophlyctidaceae </t>
+    <t xml:space="preserve">Rhizopodaceae</t>
   </si>
   <si>
-    <t xml:space="preserve">Rhizopodaceae </t>
+    <t xml:space="preserve">Rhynchogastremataceae</t>
   </si>
   <si>
-    <t xml:space="preserve">Rhynchogastremataceae </t>
+    <t xml:space="preserve">Saccharomycetales_fam_Incertae_sedis</t>
   </si>
   <si>
-    <t xml:space="preserve">Saccharomycetales_fam_Incertae_sedis </t>
+    <t xml:space="preserve">Savoryellaceae</t>
   </si>
   <si>
-    <t xml:space="preserve">Savoryellaceae </t>
+    <t xml:space="preserve">Sclerotiniaceae</t>
   </si>
   <si>
-    <t xml:space="preserve">Sclerotiniaceae </t>
+    <t xml:space="preserve">Sebacinaceae</t>
   </si>
   <si>
-    <t xml:space="preserve">Sebacinaceae </t>
+    <t xml:space="preserve">Sordariaceae</t>
   </si>
   <si>
-    <t xml:space="preserve">Sordariaceae </t>
+    <t xml:space="preserve">Sporidiobolaceae</t>
   </si>
   <si>
-    <t xml:space="preserve">Sporidiobolaceae </t>
+    <t xml:space="preserve">Sporormiaceae</t>
   </si>
   <si>
-    <t xml:space="preserve">Sporormiaceae </t>
+    <t xml:space="preserve">Stachybotryaceae</t>
   </si>
   <si>
-    <t xml:space="preserve">Stachybotryaceae </t>
+    <t xml:space="preserve">Stictidaceae</t>
   </si>
   <si>
-    <t xml:space="preserve">Stictidaceae </t>
+    <t xml:space="preserve">Sympoventuriaceae</t>
   </si>
   <si>
-    <t xml:space="preserve">Sympoventuriaceae </t>
+    <t xml:space="preserve">Testudinaceae</t>
   </si>
   <si>
-    <t xml:space="preserve">Testudinaceae </t>
+    <t xml:space="preserve">Thelebolaceae</t>
   </si>
   <si>
-    <t xml:space="preserve">Thelebolaceae </t>
+    <t xml:space="preserve">Thelephoraceae</t>
   </si>
   <si>
-    <t xml:space="preserve">Thelephoraceae </t>
+    <t xml:space="preserve">Thyridariaceae</t>
   </si>
   <si>
-    <t xml:space="preserve">Thyridariaceae </t>
+    <t xml:space="preserve">Torulaceae</t>
   </si>
   <si>
-    <t xml:space="preserve">Torulaceae </t>
+    <t xml:space="preserve">Trematosphaeriaceae</t>
   </si>
   <si>
-    <t xml:space="preserve">Trematosphaeriaceae </t>
+    <t xml:space="preserve">Trichocomaceae</t>
   </si>
   <si>
-    <t xml:space="preserve">Trichocomaceae </t>
+    <t xml:space="preserve">Trichosporonaceae</t>
   </si>
   <si>
-    <t xml:space="preserve">Trichosporonaceae </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tubeufiaceae </t>
+    <t xml:space="preserve">Tubeufiaceae</t>
   </si>
   <si>
     <t xml:space="preserve">unidentified</t>
   </si>
   <si>
-    <t xml:space="preserve">unidentified </t>
+    <t xml:space="preserve">Verrucariaceae</t>
   </si>
   <si>
-    <t xml:space="preserve">Verrucariaceae </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Xylariales_fam_Incertae_sedis </t>
+    <t xml:space="preserve">Xylariales_fam_Incertae_sedis</t>
   </si>
   <si>
     <t xml:space="preserve">B_2_1</t>
@@ -1151,16 +1145,10 @@
       <c r="DH1" t="s">
         <v>111</v>
       </c>
-      <c r="DI1" t="s">
-        <v>112</v>
-      </c>
-      <c r="DJ1" t="s">
-        <v>113</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -1370,37 +1358,37 @@
         <v>0</v>
       </c>
       <c r="BS2" t="n">
-        <v>0</v>
+        <v>247</v>
       </c>
       <c r="BT2" t="n">
-        <v>247</v>
+        <v>0</v>
       </c>
       <c r="BU2" t="n">
         <v>0</v>
       </c>
       <c r="BV2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BW2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BX2" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="BY2" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="BZ2" t="n">
         <v>0</v>
       </c>
       <c r="CA2" t="n">
-        <v>0</v>
+        <v>542</v>
       </c>
       <c r="CB2" t="n">
-        <v>542</v>
+        <v>6637</v>
       </c>
       <c r="CC2" t="n">
-        <v>6637</v>
+        <v>0</v>
       </c>
       <c r="CD2" t="n">
         <v>0</v>
@@ -1412,10 +1400,10 @@
         <v>0</v>
       </c>
       <c r="CG2" t="n">
-        <v>0</v>
+        <v>476</v>
       </c>
       <c r="CH2" t="n">
-        <v>476</v>
+        <v>0</v>
       </c>
       <c r="CI2" t="n">
         <v>0</v>
@@ -1424,37 +1412,37 @@
         <v>0</v>
       </c>
       <c r="CK2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CL2" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="CM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CN2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO2" t="n">
+        <v>91</v>
+      </c>
+      <c r="CP2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS2" t="n">
+        <v>180</v>
+      </c>
+      <c r="CT2" t="n">
         <v>10</v>
       </c>
-      <c r="CN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CO2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP2" t="n">
-        <v>91</v>
-      </c>
-      <c r="CQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CR2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT2" t="n">
-        <v>180</v>
-      </c>
       <c r="CU2" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="CV2" t="n">
         <v>0</v>
@@ -1469,10 +1457,10 @@
         <v>0</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="DA2" t="n">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="DB2" t="n">
         <v>0</v>
@@ -1484,27 +1472,21 @@
         <v>0</v>
       </c>
       <c r="DE2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DF2" t="n">
-        <v>2</v>
+        <v>14113</v>
       </c>
       <c r="DG2" t="n">
-        <v>12169</v>
+        <v>0</v>
       </c>
       <c r="DH2" t="n">
-        <v>1944</v>
-      </c>
-      <c r="DI2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B3" t="n">
         <v>0</v>
@@ -1714,141 +1696,135 @@
         <v>0</v>
       </c>
       <c r="BS3" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="BT3" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="BU3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BV3" t="n">
+        <v>34</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>78</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA3" t="n">
+        <v>784</v>
+      </c>
+      <c r="CB3" t="n">
+        <v>6299</v>
+      </c>
+      <c r="CC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG3" t="n">
+        <v>592</v>
+      </c>
+      <c r="CH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK3" t="n">
+        <v>3</v>
+      </c>
+      <c r="CL3" t="n">
+        <v>15</v>
+      </c>
+      <c r="CM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CO3" t="n">
+        <v>84</v>
+      </c>
+      <c r="CP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CS3" t="n">
+        <v>129</v>
+      </c>
+      <c r="CT3" t="n">
         <v>4</v>
       </c>
-      <c r="BW3" t="n">
-        <v>34</v>
-      </c>
-      <c r="BX3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY3" t="n">
-        <v>78</v>
-      </c>
-      <c r="BZ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB3" t="n">
-        <v>784</v>
-      </c>
-      <c r="CC3" t="n">
-        <v>6299</v>
-      </c>
-      <c r="CD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH3" t="n">
-        <v>592</v>
-      </c>
-      <c r="CI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL3" t="n">
-        <v>3</v>
-      </c>
-      <c r="CM3" t="n">
-        <v>15</v>
-      </c>
-      <c r="CN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CP3" t="n">
-        <v>84</v>
-      </c>
-      <c r="CQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CT3" t="n">
-        <v>129</v>
-      </c>
       <c r="CU3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CV3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="CW3" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="CX3" t="n">
         <v>0</v>
       </c>
       <c r="CY3" t="n">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="CZ3" t="n">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="DA3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DB3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DC3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DD3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE3" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="DF3" t="n">
-        <v>12</v>
+        <v>11358</v>
       </c>
       <c r="DG3" t="n">
-        <v>8857</v>
+        <v>0</v>
       </c>
       <c r="DH3" t="n">
-        <v>2501</v>
-      </c>
-      <c r="DI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B4" t="n">
         <v>0</v>
@@ -2058,37 +2034,37 @@
         <v>0</v>
       </c>
       <c r="BS4" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="BT4" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="BU4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="BV4" t="n">
-        <v>6</v>
+        <v>78</v>
       </c>
       <c r="BW4" t="n">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="BX4" t="n">
-        <v>0</v>
+        <v>318</v>
       </c>
       <c r="BY4" t="n">
-        <v>318</v>
+        <v>0</v>
       </c>
       <c r="BZ4" t="n">
         <v>0</v>
       </c>
       <c r="CA4" t="n">
-        <v>0</v>
+        <v>343</v>
       </c>
       <c r="CB4" t="n">
-        <v>343</v>
+        <v>2331</v>
       </c>
       <c r="CC4" t="n">
-        <v>2331</v>
+        <v>0</v>
       </c>
       <c r="CD4" t="n">
         <v>0</v>
@@ -2100,10 +2076,10 @@
         <v>0</v>
       </c>
       <c r="CG4" t="n">
-        <v>0</v>
+        <v>1624</v>
       </c>
       <c r="CH4" t="n">
-        <v>1624</v>
+        <v>0</v>
       </c>
       <c r="CI4" t="n">
         <v>0</v>
@@ -2115,19 +2091,19 @@
         <v>0</v>
       </c>
       <c r="CL4" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="CM4" t="n">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="CN4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CO4" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="CP4" t="n">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="CQ4" t="n">
         <v>0</v>
@@ -2136,34 +2112,34 @@
         <v>0</v>
       </c>
       <c r="CS4" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="CT4" t="n">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="CU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CW4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY4" t="n">
         <v>7</v>
       </c>
-      <c r="CV4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CW4" t="n">
-        <v>1</v>
-      </c>
-      <c r="CX4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY4" t="n">
-        <v>0</v>
-      </c>
       <c r="CZ4" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="DA4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DB4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="DC4" t="n">
         <v>0</v>
@@ -2175,24 +2151,18 @@
         <v>0</v>
       </c>
       <c r="DF4" t="n">
-        <v>0</v>
+        <v>10480</v>
       </c>
       <c r="DG4" t="n">
-        <v>7726</v>
+        <v>0</v>
       </c>
       <c r="DH4" t="n">
-        <v>2754</v>
-      </c>
-      <c r="DI4" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ4" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B5" t="n">
         <v>0</v>
@@ -2393,150 +2363,144 @@
         <v>4285</v>
       </c>
       <c r="BP5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS5" t="n">
-        <v>1</v>
+        <v>163</v>
       </c>
       <c r="BT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>4</v>
+      </c>
+      <c r="BV5" t="n">
+        <v>196</v>
+      </c>
+      <c r="BW5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX5" t="n">
         <v>163</v>
       </c>
-      <c r="BU5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV5" t="n">
+      <c r="BY5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA5" t="n">
+        <v>418</v>
+      </c>
+      <c r="CB5" t="n">
+        <v>3210</v>
+      </c>
+      <c r="CC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG5" t="n">
+        <v>547</v>
+      </c>
+      <c r="CH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK5" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL5" t="n">
+        <v>43</v>
+      </c>
+      <c r="CM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ5" t="n">
+        <v>1</v>
+      </c>
+      <c r="CR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS5" t="n">
+        <v>36</v>
+      </c>
+      <c r="CT5" t="n">
+        <v>11</v>
+      </c>
+      <c r="CU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV5" t="n">
+        <v>1</v>
+      </c>
+      <c r="CW5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA5" t="n">
+        <v>3</v>
+      </c>
+      <c r="DB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD5" t="n">
         <v>4</v>
       </c>
-      <c r="BW5" t="n">
-        <v>196</v>
-      </c>
-      <c r="BX5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY5" t="n">
-        <v>163</v>
-      </c>
-      <c r="BZ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB5" t="n">
-        <v>418</v>
-      </c>
-      <c r="CC5" t="n">
-        <v>3210</v>
-      </c>
-      <c r="CD5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH5" t="n">
-        <v>547</v>
-      </c>
-      <c r="CI5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL5" t="n">
-        <v>1</v>
-      </c>
-      <c r="CM5" t="n">
-        <v>43</v>
-      </c>
-      <c r="CN5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR5" t="n">
-        <v>1</v>
-      </c>
-      <c r="CS5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT5" t="n">
-        <v>36</v>
-      </c>
-      <c r="CU5" t="n">
-        <v>11</v>
-      </c>
-      <c r="CV5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CW5" t="n">
-        <v>1</v>
-      </c>
-      <c r="CX5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="DA5" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB5" t="n">
-        <v>3</v>
-      </c>
-      <c r="DC5" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD5" t="n">
-        <v>0</v>
-      </c>
       <c r="DE5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="DF5" t="n">
-        <v>2</v>
+        <v>10411</v>
       </c>
       <c r="DG5" t="n">
-        <v>7689</v>
+        <v>0</v>
       </c>
       <c r="DH5" t="n">
-        <v>2722</v>
-      </c>
-      <c r="DI5" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B6" t="n">
         <v>3</v>
@@ -2746,37 +2710,37 @@
         <v>0</v>
       </c>
       <c r="BS6" t="n">
-        <v>0</v>
+        <v>148</v>
       </c>
       <c r="BT6" t="n">
-        <v>148</v>
+        <v>0</v>
       </c>
       <c r="BU6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV6" t="n">
         <v>1</v>
       </c>
       <c r="BW6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA6" t="n">
-        <v>1</v>
+        <v>811</v>
       </c>
       <c r="CB6" t="n">
-        <v>811</v>
+        <v>7590</v>
       </c>
       <c r="CC6" t="n">
-        <v>7590</v>
+        <v>0</v>
       </c>
       <c r="CD6" t="n">
         <v>0</v>
@@ -2788,10 +2752,10 @@
         <v>0</v>
       </c>
       <c r="CG6" t="n">
-        <v>0</v>
+        <v>371</v>
       </c>
       <c r="CH6" t="n">
-        <v>371</v>
+        <v>0</v>
       </c>
       <c r="CI6" t="n">
         <v>0</v>
@@ -2800,46 +2764,46 @@
         <v>0</v>
       </c>
       <c r="CK6" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="CL6" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="CM6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CN6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CO6" t="n">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="CP6" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="CQ6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CR6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CS6" t="n">
-        <v>0</v>
+        <v>419</v>
       </c>
       <c r="CT6" t="n">
-        <v>419</v>
+        <v>24</v>
       </c>
       <c r="CU6" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="CV6" t="n">
         <v>0</v>
       </c>
       <c r="CW6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CX6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CY6" t="n">
         <v>0</v>
@@ -2848,39 +2812,33 @@
         <v>0</v>
       </c>
       <c r="DA6" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="DB6" t="n">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="DC6" t="n">
         <v>1</v>
       </c>
       <c r="DD6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE6" t="n">
         <v>0</v>
       </c>
       <c r="DF6" t="n">
-        <v>0</v>
+        <v>12375</v>
       </c>
       <c r="DG6" t="n">
-        <v>10758</v>
+        <v>0</v>
       </c>
       <c r="DH6" t="n">
-        <v>1617</v>
-      </c>
-      <c r="DI6" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B7" t="n">
         <v>0</v>
@@ -3090,13 +3048,13 @@
         <v>0</v>
       </c>
       <c r="BS7" t="n">
-        <v>0</v>
+        <v>497</v>
       </c>
       <c r="BT7" t="n">
-        <v>497</v>
+        <v>1</v>
       </c>
       <c r="BU7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV7" t="n">
         <v>0</v>
@@ -3105,37 +3063,37 @@
         <v>0</v>
       </c>
       <c r="BX7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BY7" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BZ7" t="n">
         <v>0</v>
       </c>
       <c r="CA7" t="n">
-        <v>0</v>
+        <v>2201</v>
       </c>
       <c r="CB7" t="n">
-        <v>2201</v>
+        <v>8326</v>
       </c>
       <c r="CC7" t="n">
-        <v>8326</v>
+        <v>0</v>
       </c>
       <c r="CD7" t="n">
         <v>0</v>
       </c>
       <c r="CE7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG7" t="n">
-        <v>0</v>
+        <v>1262</v>
       </c>
       <c r="CH7" t="n">
-        <v>1262</v>
+        <v>0</v>
       </c>
       <c r="CI7" t="n">
         <v>0</v>
@@ -3144,22 +3102,22 @@
         <v>0</v>
       </c>
       <c r="CK7" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="CL7" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="CM7" t="n">
         <v>0</v>
       </c>
       <c r="CN7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CO7" t="n">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="CP7" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="CQ7" t="n">
         <v>0</v>
@@ -3168,13 +3126,13 @@
         <v>0</v>
       </c>
       <c r="CS7" t="n">
-        <v>0</v>
+        <v>348</v>
       </c>
       <c r="CT7" t="n">
-        <v>348</v>
+        <v>36</v>
       </c>
       <c r="CU7" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="CV7" t="n">
         <v>0</v>
@@ -3195,36 +3153,30 @@
         <v>0</v>
       </c>
       <c r="DB7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DC7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="DD7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="DE7" t="n">
         <v>0</v>
       </c>
       <c r="DF7" t="n">
-        <v>0</v>
+        <v>10670</v>
       </c>
       <c r="DG7" t="n">
-        <v>8432</v>
+        <v>0</v>
       </c>
       <c r="DH7" t="n">
-        <v>2238</v>
-      </c>
-      <c r="DI7" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B8" t="n">
         <v>0</v>
@@ -3434,10 +3386,10 @@
         <v>0</v>
       </c>
       <c r="BS8" t="n">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="BT8" t="n">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="BU8" t="n">
         <v>0</v>
@@ -3449,61 +3401,61 @@
         <v>0</v>
       </c>
       <c r="BX8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BY8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA8" t="n">
+        <v>964</v>
+      </c>
+      <c r="CB8" t="n">
+        <v>12412</v>
+      </c>
+      <c r="CC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF8" t="n">
+        <v>5</v>
+      </c>
+      <c r="CG8" t="n">
+        <v>488</v>
+      </c>
+      <c r="CH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK8" t="n">
+        <v>5</v>
+      </c>
+      <c r="CL8" t="n">
         <v>3</v>
       </c>
-      <c r="BZ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB8" t="n">
-        <v>964</v>
-      </c>
-      <c r="CC8" t="n">
-        <v>12412</v>
-      </c>
-      <c r="CD8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG8" t="n">
-        <v>5</v>
-      </c>
-      <c r="CH8" t="n">
-        <v>488</v>
-      </c>
-      <c r="CI8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL8" t="n">
-        <v>5</v>
-      </c>
       <c r="CM8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CN8" t="n">
         <v>0</v>
       </c>
       <c r="CO8" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="CP8" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="CQ8" t="n">
         <v>0</v>
@@ -3512,13 +3464,13 @@
         <v>0</v>
       </c>
       <c r="CS8" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="CT8" t="n">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="CU8" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="CV8" t="n">
         <v>0</v>
@@ -3551,24 +3503,18 @@
         <v>0</v>
       </c>
       <c r="DF8" t="n">
-        <v>0</v>
+        <v>7824</v>
       </c>
       <c r="DG8" t="n">
-        <v>6184</v>
+        <v>0</v>
       </c>
       <c r="DH8" t="n">
-        <v>1640</v>
-      </c>
-      <c r="DI8" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B9" t="n">
         <v>0</v>
@@ -3778,37 +3724,37 @@
         <v>0</v>
       </c>
       <c r="BS9" t="n">
-        <v>0</v>
+        <v>949</v>
       </c>
       <c r="BT9" t="n">
-        <v>949</v>
+        <v>1</v>
       </c>
       <c r="BU9" t="n">
         <v>1</v>
       </c>
       <c r="BV9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW9" t="n">
         <v>0</v>
       </c>
       <c r="BX9" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BY9" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="BZ9" t="n">
         <v>0</v>
       </c>
       <c r="CA9" t="n">
-        <v>0</v>
+        <v>1402</v>
       </c>
       <c r="CB9" t="n">
-        <v>1402</v>
+        <v>10149</v>
       </c>
       <c r="CC9" t="n">
-        <v>10149</v>
+        <v>0</v>
       </c>
       <c r="CD9" t="n">
         <v>0</v>
@@ -3817,37 +3763,37 @@
         <v>0</v>
       </c>
       <c r="CF9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG9" t="n">
-        <v>1</v>
+        <v>556</v>
       </c>
       <c r="CH9" t="n">
-        <v>556</v>
+        <v>0</v>
       </c>
       <c r="CI9" t="n">
         <v>0</v>
       </c>
       <c r="CJ9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CK9" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="CL9" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="CM9" t="n">
         <v>0</v>
       </c>
       <c r="CN9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CO9" t="n">
-        <v>2</v>
+        <v>117</v>
       </c>
       <c r="CP9" t="n">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="CQ9" t="n">
         <v>0</v>
@@ -3856,13 +3802,13 @@
         <v>0</v>
       </c>
       <c r="CS9" t="n">
-        <v>0</v>
+        <v>2285</v>
       </c>
       <c r="CT9" t="n">
-        <v>2285</v>
+        <v>46</v>
       </c>
       <c r="CU9" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="CV9" t="n">
         <v>0</v>
@@ -3880,13 +3826,13 @@
         <v>0</v>
       </c>
       <c r="DA9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DB9" t="n">
         <v>1</v>
       </c>
       <c r="DC9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DD9" t="n">
         <v>0</v>
@@ -3895,24 +3841,18 @@
         <v>0</v>
       </c>
       <c r="DF9" t="n">
-        <v>0</v>
+        <v>10527</v>
       </c>
       <c r="DG9" t="n">
-        <v>7931</v>
+        <v>2</v>
       </c>
       <c r="DH9" t="n">
-        <v>2596</v>
-      </c>
-      <c r="DI9" t="n">
-        <v>2</v>
-      </c>
-      <c r="DJ9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B10" t="n">
         <v>12</v>
@@ -4122,52 +4062,52 @@
         <v>0</v>
       </c>
       <c r="BS10" t="n">
-        <v>0</v>
+        <v>445</v>
       </c>
       <c r="BT10" t="n">
-        <v>445</v>
+        <v>0</v>
       </c>
       <c r="BU10" t="n">
         <v>0</v>
       </c>
       <c r="BV10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX10" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="BY10" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="BZ10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CA10" t="n">
-        <v>0</v>
+        <v>1489</v>
       </c>
       <c r="CB10" t="n">
-        <v>1489</v>
+        <v>8664</v>
       </c>
       <c r="CC10" t="n">
-        <v>8664</v>
+        <v>0</v>
       </c>
       <c r="CD10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF10" t="n">
         <v>0</v>
       </c>
       <c r="CG10" t="n">
-        <v>0</v>
+        <v>387</v>
       </c>
       <c r="CH10" t="n">
-        <v>387</v>
+        <v>0</v>
       </c>
       <c r="CI10" t="n">
         <v>0</v>
@@ -4176,43 +4116,43 @@
         <v>0</v>
       </c>
       <c r="CK10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CL10" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CM10" t="n">
         <v>0</v>
       </c>
       <c r="CN10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CO10" t="n">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="CP10" t="n">
-        <v>56</v>
+        <v>5</v>
       </c>
       <c r="CQ10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="CR10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CS10" t="n">
-        <v>0</v>
+        <v>349</v>
       </c>
       <c r="CT10" t="n">
-        <v>349</v>
+        <v>16</v>
       </c>
       <c r="CU10" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="CV10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CW10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CX10" t="n">
         <v>0</v>
@@ -4224,39 +4164,33 @@
         <v>0</v>
       </c>
       <c r="DA10" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="DB10" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="DC10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DD10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE10" t="n">
         <v>0</v>
       </c>
       <c r="DF10" t="n">
-        <v>0</v>
+        <v>10757</v>
       </c>
       <c r="DG10" t="n">
-        <v>7526</v>
+        <v>0</v>
       </c>
       <c r="DH10" t="n">
-        <v>3231</v>
-      </c>
-      <c r="DI10" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B11" t="n">
         <v>0</v>
@@ -4454,10 +4388,10 @@
         <v>1</v>
       </c>
       <c r="BO11" t="n">
-        <v>5428</v>
+        <v>5429</v>
       </c>
       <c r="BP11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ11" t="n">
         <v>0</v>
@@ -4466,10 +4400,10 @@
         <v>0</v>
       </c>
       <c r="BS11" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="BT11" t="n">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="BU11" t="n">
         <v>0</v>
@@ -4481,22 +4415,22 @@
         <v>0</v>
       </c>
       <c r="BX11" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="BY11" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="BZ11" t="n">
         <v>0</v>
       </c>
       <c r="CA11" t="n">
-        <v>0</v>
+        <v>430</v>
       </c>
       <c r="CB11" t="n">
-        <v>430</v>
+        <v>3130</v>
       </c>
       <c r="CC11" t="n">
-        <v>3130</v>
+        <v>0</v>
       </c>
       <c r="CD11" t="n">
         <v>0</v>
@@ -4508,10 +4442,10 @@
         <v>0</v>
       </c>
       <c r="CG11" t="n">
-        <v>0</v>
+        <v>3337</v>
       </c>
       <c r="CH11" t="n">
-        <v>3337</v>
+        <v>0</v>
       </c>
       <c r="CI11" t="n">
         <v>0</v>
@@ -4520,37 +4454,37 @@
         <v>0</v>
       </c>
       <c r="CK11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CL11" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="CM11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO11" t="n">
+        <v>19</v>
+      </c>
+      <c r="CP11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS11" t="n">
         <v>20</v>
       </c>
-      <c r="CN11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP11" t="n">
-        <v>19</v>
-      </c>
-      <c r="CQ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS11" t="n">
-        <v>0</v>
-      </c>
       <c r="CT11" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="CU11" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="CV11" t="n">
         <v>0</v>
@@ -4568,39 +4502,33 @@
         <v>0</v>
       </c>
       <c r="DA11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DB11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="DC11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DD11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="DE11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF11" t="n">
-        <v>0</v>
+        <v>9322</v>
       </c>
       <c r="DG11" t="n">
-        <v>7712</v>
+        <v>0</v>
       </c>
       <c r="DH11" t="n">
-        <v>1610</v>
-      </c>
-      <c r="DI11" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B12" t="n">
         <v>26</v>
@@ -4810,37 +4738,37 @@
         <v>0</v>
       </c>
       <c r="BS12" t="n">
-        <v>0</v>
+        <v>193</v>
       </c>
       <c r="BT12" t="n">
-        <v>193</v>
+        <v>1</v>
       </c>
       <c r="BU12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX12" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BY12" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="BZ12" t="n">
         <v>0</v>
       </c>
       <c r="CA12" t="n">
-        <v>0</v>
+        <v>1812</v>
       </c>
       <c r="CB12" t="n">
-        <v>1812</v>
+        <v>8768</v>
       </c>
       <c r="CC12" t="n">
-        <v>8768</v>
+        <v>0</v>
       </c>
       <c r="CD12" t="n">
         <v>0</v>
@@ -4852,10 +4780,10 @@
         <v>0</v>
       </c>
       <c r="CG12" t="n">
-        <v>0</v>
+        <v>454</v>
       </c>
       <c r="CH12" t="n">
-        <v>454</v>
+        <v>0</v>
       </c>
       <c r="CI12" t="n">
         <v>0</v>
@@ -4867,19 +4795,19 @@
         <v>0</v>
       </c>
       <c r="CL12" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="CM12" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="CN12" t="n">
         <v>0</v>
       </c>
       <c r="CO12" t="n">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="CP12" t="n">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="CQ12" t="n">
         <v>0</v>
@@ -4888,13 +4816,13 @@
         <v>0</v>
       </c>
       <c r="CS12" t="n">
-        <v>0</v>
+        <v>196</v>
       </c>
       <c r="CT12" t="n">
-        <v>196</v>
+        <v>15</v>
       </c>
       <c r="CU12" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="CV12" t="n">
         <v>0</v>
@@ -4906,10 +4834,10 @@
         <v>0</v>
       </c>
       <c r="CY12" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="CZ12" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="DA12" t="n">
         <v>0</v>
@@ -4924,27 +4852,21 @@
         <v>0</v>
       </c>
       <c r="DE12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DF12" t="n">
-        <v>1</v>
+        <v>9166</v>
       </c>
       <c r="DG12" t="n">
-        <v>6972</v>
+        <v>0</v>
       </c>
       <c r="DH12" t="n">
-        <v>2194</v>
-      </c>
-      <c r="DI12" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B13" t="n">
         <v>0</v>
@@ -5154,52 +5076,52 @@
         <v>0</v>
       </c>
       <c r="BS13" t="n">
-        <v>0</v>
+        <v>492</v>
       </c>
       <c r="BT13" t="n">
-        <v>492</v>
+        <v>1</v>
       </c>
       <c r="BU13" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="BV13" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="BW13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX13" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="BY13" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="BZ13" t="n">
         <v>0</v>
       </c>
       <c r="CA13" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="CB13" t="n">
-        <v>1200</v>
+        <v>4487</v>
       </c>
       <c r="CC13" t="n">
-        <v>4487</v>
+        <v>2</v>
       </c>
       <c r="CD13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CE13" t="n">
         <v>0</v>
       </c>
       <c r="CF13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG13" t="n">
-        <v>1</v>
+        <v>1342</v>
       </c>
       <c r="CH13" t="n">
-        <v>1342</v>
+        <v>0</v>
       </c>
       <c r="CI13" t="n">
         <v>0</v>
@@ -5208,46 +5130,46 @@
         <v>0</v>
       </c>
       <c r="CK13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CL13" t="n">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="CM13" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="CN13" t="n">
         <v>0</v>
       </c>
       <c r="CO13" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="CP13" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="CQ13" t="n">
         <v>0</v>
       </c>
       <c r="CR13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CS13" t="n">
-        <v>1</v>
+        <v>334</v>
       </c>
       <c r="CT13" t="n">
-        <v>334</v>
+        <v>23</v>
       </c>
       <c r="CU13" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="CV13" t="n">
         <v>0</v>
       </c>
       <c r="CW13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CX13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CY13" t="n">
         <v>0</v>
@@ -5256,39 +5178,33 @@
         <v>0</v>
       </c>
       <c r="DA13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DB13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DC13" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="DD13" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="DE13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF13" t="n">
-        <v>0</v>
+        <v>12056</v>
       </c>
       <c r="DG13" t="n">
-        <v>9788</v>
+        <v>0</v>
       </c>
       <c r="DH13" t="n">
-        <v>2268</v>
-      </c>
-      <c r="DI13" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B14" t="n">
         <v>0</v>
@@ -5498,37 +5414,37 @@
         <v>0</v>
       </c>
       <c r="BS14" t="n">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="BT14" t="n">
-        <v>205</v>
+        <v>1</v>
       </c>
       <c r="BU14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BV14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BW14" t="n">
         <v>0</v>
       </c>
       <c r="BX14" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="BY14" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="BZ14" t="n">
         <v>0</v>
       </c>
       <c r="CA14" t="n">
-        <v>0</v>
+        <v>2157</v>
       </c>
       <c r="CB14" t="n">
-        <v>2157</v>
+        <v>5486</v>
       </c>
       <c r="CC14" t="n">
-        <v>5486</v>
+        <v>0</v>
       </c>
       <c r="CD14" t="n">
         <v>0</v>
@@ -5540,10 +5456,10 @@
         <v>0</v>
       </c>
       <c r="CG14" t="n">
-        <v>0</v>
+        <v>611</v>
       </c>
       <c r="CH14" t="n">
-        <v>611</v>
+        <v>0</v>
       </c>
       <c r="CI14" t="n">
         <v>0</v>
@@ -5552,37 +5468,37 @@
         <v>0</v>
       </c>
       <c r="CK14" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="CL14" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="CM14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CN14" t="n">
         <v>0</v>
       </c>
       <c r="CO14" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="CP14" t="n">
-        <v>67</v>
+        <v>1</v>
       </c>
       <c r="CQ14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CR14" t="n">
         <v>0</v>
       </c>
       <c r="CS14" t="n">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="CT14" t="n">
-        <v>109</v>
+        <v>22</v>
       </c>
       <c r="CU14" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="CV14" t="n">
         <v>0</v>
@@ -5594,16 +5510,16 @@
         <v>0</v>
       </c>
       <c r="CY14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CZ14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DA14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DB14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DC14" t="n">
         <v>0</v>
@@ -5615,24 +5531,18 @@
         <v>0</v>
       </c>
       <c r="DF14" t="n">
-        <v>0</v>
+        <v>12287</v>
       </c>
       <c r="DG14" t="n">
-        <v>9756</v>
+        <v>0</v>
       </c>
       <c r="DH14" t="n">
-        <v>2531</v>
-      </c>
-      <c r="DI14" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ14" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B15" t="n">
         <v>1</v>
@@ -5842,37 +5752,37 @@
         <v>0</v>
       </c>
       <c r="BS15" t="n">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="BT15" t="n">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="BU15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX15" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="BY15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ15" t="n">
         <v>6</v>
       </c>
-      <c r="BZ15" t="n">
-        <v>0</v>
-      </c>
       <c r="CA15" t="n">
-        <v>6</v>
+        <v>1597</v>
       </c>
       <c r="CB15" t="n">
-        <v>1597</v>
+        <v>7884</v>
       </c>
       <c r="CC15" t="n">
-        <v>7884</v>
+        <v>0</v>
       </c>
       <c r="CD15" t="n">
         <v>0</v>
@@ -5884,70 +5794,70 @@
         <v>0</v>
       </c>
       <c r="CG15" t="n">
-        <v>0</v>
+        <v>706</v>
       </c>
       <c r="CH15" t="n">
-        <v>706</v>
+        <v>2</v>
       </c>
       <c r="CI15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CJ15" t="n">
         <v>0</v>
       </c>
       <c r="CK15" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="CL15" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="CM15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CN15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CO15" t="n">
-        <v>1</v>
+        <v>164</v>
       </c>
       <c r="CP15" t="n">
-        <v>164</v>
+        <v>0</v>
       </c>
       <c r="CQ15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CR15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CS15" t="n">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="CT15" t="n">
-        <v>89</v>
+        <v>9</v>
       </c>
       <c r="CU15" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="CV15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CW15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CX15" t="n">
         <v>0</v>
       </c>
       <c r="CY15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CZ15" t="n">
         <v>1</v>
       </c>
       <c r="DA15" t="n">
-        <v>1</v>
+        <v>2027</v>
       </c>
       <c r="DB15" t="n">
-        <v>2027</v>
+        <v>0</v>
       </c>
       <c r="DC15" t="n">
         <v>0</v>
@@ -5959,24 +5869,18 @@
         <v>0</v>
       </c>
       <c r="DF15" t="n">
-        <v>0</v>
+        <v>10196</v>
       </c>
       <c r="DG15" t="n">
-        <v>7917</v>
+        <v>0</v>
       </c>
       <c r="DH15" t="n">
-        <v>2279</v>
-      </c>
-      <c r="DI15" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ15" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B16" t="n">
         <v>0</v>
@@ -6186,91 +6090,91 @@
         <v>0</v>
       </c>
       <c r="BS16" t="n">
-        <v>0</v>
+        <v>271</v>
       </c>
       <c r="BT16" t="n">
-        <v>271</v>
+        <v>1</v>
       </c>
       <c r="BU16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV16" t="n">
         <v>0</v>
       </c>
       <c r="BW16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BX16" t="n">
+        <v>59</v>
+      </c>
+      <c r="BY16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA16" t="n">
+        <v>822</v>
+      </c>
+      <c r="CB16" t="n">
+        <v>7697</v>
+      </c>
+      <c r="CC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE16" t="n">
+        <v>1</v>
+      </c>
+      <c r="CF16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG16" t="n">
+        <v>458</v>
+      </c>
+      <c r="CH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK16" t="n">
         <v>3</v>
       </c>
-      <c r="BY16" t="n">
-        <v>59</v>
-      </c>
-      <c r="BZ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB16" t="n">
-        <v>822</v>
-      </c>
-      <c r="CC16" t="n">
-        <v>7697</v>
-      </c>
-      <c r="CD16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF16" t="n">
-        <v>1</v>
-      </c>
-      <c r="CG16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH16" t="n">
-        <v>458</v>
-      </c>
-      <c r="CI16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK16" t="n">
-        <v>0</v>
-      </c>
       <c r="CL16" t="n">
+        <v>1</v>
+      </c>
+      <c r="CM16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO16" t="n">
         <v>3</v>
       </c>
-      <c r="CM16" t="n">
-        <v>1</v>
-      </c>
-      <c r="CN16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO16" t="n">
-        <v>0</v>
-      </c>
       <c r="CP16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ16" t="n">
         <v>3</v>
       </c>
-      <c r="CQ16" t="n">
-        <v>0</v>
-      </c>
       <c r="CR16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CS16" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="CT16" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="CU16" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="CV16" t="n">
         <v>0</v>
@@ -6291,36 +6195,30 @@
         <v>0</v>
       </c>
       <c r="DB16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DC16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="DD16" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="DE16" t="n">
         <v>0</v>
       </c>
       <c r="DF16" t="n">
-        <v>0</v>
+        <v>13195</v>
       </c>
       <c r="DG16" t="n">
-        <v>11347</v>
+        <v>0</v>
       </c>
       <c r="DH16" t="n">
-        <v>1848</v>
-      </c>
-      <c r="DI16" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ16" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B17" t="n">
         <v>0</v>
@@ -6530,37 +6428,37 @@
         <v>0</v>
       </c>
       <c r="BS17" t="n">
-        <v>0</v>
+        <v>245</v>
       </c>
       <c r="BT17" t="n">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="BU17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW17" t="n">
         <v>0</v>
       </c>
       <c r="BX17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BY17" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BZ17" t="n">
         <v>0</v>
       </c>
       <c r="CA17" t="n">
-        <v>0</v>
+        <v>1297</v>
       </c>
       <c r="CB17" t="n">
-        <v>1297</v>
+        <v>10139</v>
       </c>
       <c r="CC17" t="n">
-        <v>10139</v>
+        <v>0</v>
       </c>
       <c r="CD17" t="n">
         <v>0</v>
@@ -6572,10 +6470,10 @@
         <v>0</v>
       </c>
       <c r="CG17" t="n">
-        <v>0</v>
+        <v>272</v>
       </c>
       <c r="CH17" t="n">
-        <v>272</v>
+        <v>0</v>
       </c>
       <c r="CI17" t="n">
         <v>0</v>
@@ -6584,37 +6482,37 @@
         <v>0</v>
       </c>
       <c r="CK17" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="CL17" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="CM17" t="n">
         <v>0</v>
       </c>
       <c r="CN17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CO17" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="CP17" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="CQ17" t="n">
         <v>0</v>
       </c>
       <c r="CR17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CS17" t="n">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="CT17" t="n">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="CU17" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="CV17" t="n">
         <v>0</v>
@@ -6629,42 +6527,36 @@
         <v>0</v>
       </c>
       <c r="CZ17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DA17" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="DB17" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="DC17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DD17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE17" t="n">
         <v>0</v>
       </c>
       <c r="DF17" t="n">
-        <v>0</v>
+        <v>7871</v>
       </c>
       <c r="DG17" t="n">
-        <v>5177</v>
+        <v>0</v>
       </c>
       <c r="DH17" t="n">
-        <v>2694</v>
-      </c>
-      <c r="DI17" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ17" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B18" t="n">
         <v>0</v>
@@ -6871,40 +6763,40 @@
         <v>0</v>
       </c>
       <c r="BR18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BS18" t="n">
-        <v>2</v>
+        <v>611</v>
       </c>
       <c r="BT18" t="n">
-        <v>611</v>
+        <v>0</v>
       </c>
       <c r="BU18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BV18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BW18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX18" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BY18" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BZ18" t="n">
         <v>0</v>
       </c>
       <c r="CA18" t="n">
-        <v>0</v>
+        <v>1299</v>
       </c>
       <c r="CB18" t="n">
-        <v>1299</v>
+        <v>10042</v>
       </c>
       <c r="CC18" t="n">
-        <v>10042</v>
+        <v>0</v>
       </c>
       <c r="CD18" t="n">
         <v>0</v>
@@ -6916,10 +6808,10 @@
         <v>0</v>
       </c>
       <c r="CG18" t="n">
-        <v>0</v>
+        <v>2598</v>
       </c>
       <c r="CH18" t="n">
-        <v>2598</v>
+        <v>0</v>
       </c>
       <c r="CI18" t="n">
         <v>0</v>
@@ -6928,22 +6820,22 @@
         <v>0</v>
       </c>
       <c r="CK18" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="CL18" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="CM18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CN18" t="n">
         <v>0</v>
       </c>
       <c r="CO18" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="CP18" t="n">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="CQ18" t="n">
         <v>0</v>
@@ -6952,13 +6844,13 @@
         <v>0</v>
       </c>
       <c r="CS18" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="CT18" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="CU18" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="CV18" t="n">
         <v>0</v>
@@ -6973,42 +6865,36 @@
         <v>0</v>
       </c>
       <c r="CZ18" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="DA18" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="DB18" t="n">
         <v>0</v>
       </c>
       <c r="DC18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DD18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="DE18" t="n">
         <v>0</v>
       </c>
       <c r="DF18" t="n">
-        <v>0</v>
+        <v>7557</v>
       </c>
       <c r="DG18" t="n">
-        <v>5280</v>
+        <v>0</v>
       </c>
       <c r="DH18" t="n">
-        <v>2277</v>
-      </c>
-      <c r="DI18" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B19" t="n">
         <v>0</v>
@@ -7218,10 +7104,10 @@
         <v>0</v>
       </c>
       <c r="BS19" t="n">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="BT19" t="n">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="BU19" t="n">
         <v>0</v>
@@ -7233,22 +7119,22 @@
         <v>0</v>
       </c>
       <c r="BX19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BY19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BZ19" t="n">
         <v>0</v>
       </c>
       <c r="CA19" t="n">
-        <v>0</v>
+        <v>392</v>
       </c>
       <c r="CB19" t="n">
-        <v>392</v>
+        <v>10116</v>
       </c>
       <c r="CC19" t="n">
-        <v>10116</v>
+        <v>0</v>
       </c>
       <c r="CD19" t="n">
         <v>0</v>
@@ -7260,49 +7146,49 @@
         <v>0</v>
       </c>
       <c r="CG19" t="n">
-        <v>0</v>
+        <v>964</v>
       </c>
       <c r="CH19" t="n">
-        <v>964</v>
+        <v>0</v>
       </c>
       <c r="CI19" t="n">
         <v>0</v>
       </c>
       <c r="CJ19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CK19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CL19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CM19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CN19" t="n">
         <v>0</v>
       </c>
       <c r="CO19" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="CP19" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="CQ19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CR19" t="n">
         <v>0</v>
       </c>
       <c r="CS19" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="CT19" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="CU19" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="CV19" t="n">
         <v>0</v>
@@ -7323,36 +7209,30 @@
         <v>0</v>
       </c>
       <c r="DB19" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="DC19" t="n">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="DD19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="DE19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF19" t="n">
-        <v>0</v>
+        <v>11761</v>
       </c>
       <c r="DG19" t="n">
-        <v>10214</v>
+        <v>0</v>
       </c>
       <c r="DH19" t="n">
-        <v>1547</v>
-      </c>
-      <c r="DI19" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ19" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B20" t="n">
         <v>2</v>
@@ -7559,67 +7439,67 @@
         <v>0</v>
       </c>
       <c r="BR20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS20" t="n">
-        <v>1</v>
+        <v>211</v>
       </c>
       <c r="BT20" t="n">
-        <v>211</v>
+        <v>0</v>
       </c>
       <c r="BU20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BV20" t="n">
         <v>3</v>
       </c>
       <c r="BW20" t="n">
+        <v>4</v>
+      </c>
+      <c r="BX20" t="n">
         <v>3</v>
       </c>
-      <c r="BX20" t="n">
-        <v>4</v>
-      </c>
       <c r="BY20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA20" t="n">
+        <v>4075</v>
+      </c>
+      <c r="CB20" t="n">
+        <v>10293</v>
+      </c>
+      <c r="CC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG20" t="n">
+        <v>1518</v>
+      </c>
+      <c r="CH20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK20" t="n">
         <v>3</v>
       </c>
-      <c r="BZ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB20" t="n">
-        <v>4075</v>
-      </c>
-      <c r="CC20" t="n">
-        <v>10293</v>
-      </c>
-      <c r="CD20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH20" t="n">
-        <v>1518</v>
-      </c>
-      <c r="CI20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK20" t="n">
-        <v>0</v>
-      </c>
       <c r="CL20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CM20" t="n">
         <v>0</v>
@@ -7628,10 +7508,10 @@
         <v>0</v>
       </c>
       <c r="CO20" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="CP20" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="CQ20" t="n">
         <v>0</v>
@@ -7640,19 +7520,19 @@
         <v>0</v>
       </c>
       <c r="CS20" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="CT20" t="n">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="CU20" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="CV20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CW20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CX20" t="n">
         <v>0</v>
@@ -7664,10 +7544,10 @@
         <v>0</v>
       </c>
       <c r="DA20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DB20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DC20" t="n">
         <v>0</v>
@@ -7679,24 +7559,18 @@
         <v>0</v>
       </c>
       <c r="DF20" t="n">
-        <v>0</v>
+        <v>7669</v>
       </c>
       <c r="DG20" t="n">
-        <v>5824</v>
+        <v>0</v>
       </c>
       <c r="DH20" t="n">
-        <v>1845</v>
-      </c>
-      <c r="DI20" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ20" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B21" t="n">
         <v>0</v>
@@ -7906,52 +7780,52 @@
         <v>0</v>
       </c>
       <c r="BS21" t="n">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="BT21" t="n">
-        <v>149</v>
+        <v>0</v>
       </c>
       <c r="BU21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BV21" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="BW21" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="BX21" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="BY21" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="BZ21" t="n">
         <v>0</v>
       </c>
       <c r="CA21" t="n">
-        <v>0</v>
+        <v>999</v>
       </c>
       <c r="CB21" t="n">
-        <v>999</v>
+        <v>2949</v>
       </c>
       <c r="CC21" t="n">
-        <v>2949</v>
+        <v>0</v>
       </c>
       <c r="CD21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CE21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CF21" t="n">
         <v>0</v>
       </c>
       <c r="CG21" t="n">
-        <v>0</v>
+        <v>812</v>
       </c>
       <c r="CH21" t="n">
-        <v>812</v>
+        <v>0</v>
       </c>
       <c r="CI21" t="n">
         <v>0</v>
@@ -7963,55 +7837,55 @@
         <v>0</v>
       </c>
       <c r="CL21" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="CM21" t="n">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="CN21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CO21" t="n">
-        <v>0</v>
+        <v>203</v>
       </c>
       <c r="CP21" t="n">
-        <v>203</v>
+        <v>2</v>
       </c>
       <c r="CQ21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CR21" t="n">
         <v>0</v>
       </c>
       <c r="CS21" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="CT21" t="n">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="CU21" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="CV21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CW21" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="CX21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY21" t="n">
         <v>4</v>
       </c>
-      <c r="CY21" t="n">
-        <v>0</v>
-      </c>
       <c r="CZ21" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="DA21" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="DB21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DC21" t="n">
         <v>0</v>
@@ -8023,24 +7897,18 @@
         <v>0</v>
       </c>
       <c r="DF21" t="n">
-        <v>0</v>
+        <v>11049</v>
       </c>
       <c r="DG21" t="n">
-        <v>8087</v>
+        <v>0</v>
       </c>
       <c r="DH21" t="n">
-        <v>2962</v>
-      </c>
-      <c r="DI21" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ21" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B22" t="n">
         <v>0</v>
@@ -8250,37 +8118,37 @@
         <v>0</v>
       </c>
       <c r="BS22" t="n">
-        <v>0</v>
+        <v>142</v>
       </c>
       <c r="BT22" t="n">
-        <v>142</v>
+        <v>1</v>
       </c>
       <c r="BU22" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="BV22" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="BW22" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="BX22" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="BY22" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="BZ22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA22" t="n">
-        <v>1</v>
+        <v>888</v>
       </c>
       <c r="CB22" t="n">
-        <v>888</v>
+        <v>4781</v>
       </c>
       <c r="CC22" t="n">
-        <v>4781</v>
+        <v>0</v>
       </c>
       <c r="CD22" t="n">
         <v>0</v>
@@ -8289,52 +8157,52 @@
         <v>0</v>
       </c>
       <c r="CF22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG22" t="n">
-        <v>1</v>
+        <v>868</v>
       </c>
       <c r="CH22" t="n">
-        <v>868</v>
+        <v>2</v>
       </c>
       <c r="CI22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CJ22" t="n">
         <v>0</v>
       </c>
       <c r="CK22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CL22" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="CM22" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="CN22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CO22" t="n">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="CP22" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="CQ22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CR22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CS22" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="CT22" t="n">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="CU22" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="CV22" t="n">
         <v>0</v>
@@ -8349,13 +8217,13 @@
         <v>0</v>
       </c>
       <c r="CZ22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DA22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="DB22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DC22" t="n">
         <v>0</v>
@@ -8364,27 +8232,21 @@
         <v>0</v>
       </c>
       <c r="DE22" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="DF22" t="n">
-        <v>55</v>
+        <v>9677</v>
       </c>
       <c r="DG22" t="n">
-        <v>6671</v>
+        <v>0</v>
       </c>
       <c r="DH22" t="n">
-        <v>3006</v>
-      </c>
-      <c r="DI22" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ22" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B23" t="n">
         <v>0</v>
@@ -8585,49 +8447,49 @@
         <v>5355</v>
       </c>
       <c r="BP23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR23" t="n">
         <v>0</v>
       </c>
       <c r="BS23" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="BT23" t="n">
-        <v>78</v>
+        <v>1</v>
       </c>
       <c r="BU23" t="n">
         <v>1</v>
       </c>
       <c r="BV23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX23" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="BY23" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="BZ23" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CA23" t="n">
-        <v>4</v>
+        <v>595</v>
       </c>
       <c r="CB23" t="n">
-        <v>595</v>
+        <v>2394</v>
       </c>
       <c r="CC23" t="n">
-        <v>2394</v>
+        <v>1</v>
       </c>
       <c r="CD23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE23" t="n">
         <v>0</v>
@@ -8636,10 +8498,10 @@
         <v>0</v>
       </c>
       <c r="CG23" t="n">
-        <v>0</v>
+        <v>2958</v>
       </c>
       <c r="CH23" t="n">
-        <v>2958</v>
+        <v>0</v>
       </c>
       <c r="CI23" t="n">
         <v>0</v>
@@ -8648,22 +8510,22 @@
         <v>0</v>
       </c>
       <c r="CK23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CL23" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="CM23" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="CN23" t="n">
         <v>0</v>
       </c>
       <c r="CO23" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="CP23" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="CQ23" t="n">
         <v>0</v>
@@ -8672,63 +8534,57 @@
         <v>0</v>
       </c>
       <c r="CS23" t="n">
-        <v>0</v>
+        <v>133</v>
       </c>
       <c r="CT23" t="n">
-        <v>133</v>
+        <v>8</v>
       </c>
       <c r="CU23" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="CV23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CW23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CX23" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="CY23" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="CZ23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DA23" t="n">
         <v>1</v>
       </c>
       <c r="DB23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DC23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DD23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="DE23" t="n">
         <v>0</v>
       </c>
       <c r="DF23" t="n">
-        <v>0</v>
+        <v>12305</v>
       </c>
       <c r="DG23" t="n">
-        <v>8783</v>
+        <v>0</v>
       </c>
       <c r="DH23" t="n">
-        <v>3522</v>
-      </c>
-      <c r="DI23" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ23" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B24" t="n">
         <v>0</v>
@@ -8938,40 +8794,40 @@
         <v>0</v>
       </c>
       <c r="BS24" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="BT24" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="BU24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BV24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BW24" t="n">
         <v>0</v>
       </c>
       <c r="BX24" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="BY24" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="BZ24" t="n">
         <v>0</v>
       </c>
       <c r="CA24" t="n">
-        <v>0</v>
+        <v>192</v>
       </c>
       <c r="CB24" t="n">
-        <v>192</v>
+        <v>1904</v>
       </c>
       <c r="CC24" t="n">
-        <v>1904</v>
+        <v>1</v>
       </c>
       <c r="CD24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE24" t="n">
         <v>0</v>
@@ -8980,10 +8836,10 @@
         <v>0</v>
       </c>
       <c r="CG24" t="n">
-        <v>0</v>
+        <v>281</v>
       </c>
       <c r="CH24" t="n">
-        <v>281</v>
+        <v>0</v>
       </c>
       <c r="CI24" t="n">
         <v>0</v>
@@ -8995,10 +8851,10 @@
         <v>0</v>
       </c>
       <c r="CL24" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="CM24" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="CN24" t="n">
         <v>0</v>
@@ -9016,16 +8872,16 @@
         <v>0</v>
       </c>
       <c r="CS24" t="n">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="CT24" t="n">
-        <v>91</v>
+        <v>11</v>
       </c>
       <c r="CU24" t="n">
-        <v>11</v>
+        <v>299</v>
       </c>
       <c r="CV24" t="n">
-        <v>299</v>
+        <v>0</v>
       </c>
       <c r="CW24" t="n">
         <v>0</v>
@@ -9055,24 +8911,18 @@
         <v>0</v>
       </c>
       <c r="DF24" t="n">
-        <v>0</v>
+        <v>11097</v>
       </c>
       <c r="DG24" t="n">
-        <v>8935</v>
+        <v>0</v>
       </c>
       <c r="DH24" t="n">
-        <v>2162</v>
-      </c>
-      <c r="DI24" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ24" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B25" t="n">
         <v>0</v>
@@ -9282,141 +9132,135 @@
         <v>0</v>
       </c>
       <c r="BS25" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="BT25" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="BU25" t="n">
         <v>0</v>
       </c>
       <c r="BV25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BW25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BX25" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="BY25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA25" t="n">
+        <v>102</v>
+      </c>
+      <c r="CB25" t="n">
+        <v>1610</v>
+      </c>
+      <c r="CC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG25" t="n">
+        <v>532</v>
+      </c>
+      <c r="CH25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL25" t="n">
+        <v>15</v>
+      </c>
+      <c r="CM25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS25" t="n">
+        <v>5</v>
+      </c>
+      <c r="CT25" t="n">
+        <v>6</v>
+      </c>
+      <c r="CU25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA25" t="n">
+        <v>5</v>
+      </c>
+      <c r="DB25" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD25" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE25" t="n">
         <v>24</v>
       </c>
-      <c r="BZ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB25" t="n">
-        <v>102</v>
-      </c>
-      <c r="CC25" t="n">
-        <v>1610</v>
-      </c>
-      <c r="CD25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH25" t="n">
-        <v>532</v>
-      </c>
-      <c r="CI25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM25" t="n">
-        <v>15</v>
-      </c>
-      <c r="CN25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT25" t="n">
-        <v>5</v>
-      </c>
-      <c r="CU25" t="n">
-        <v>6</v>
-      </c>
-      <c r="CV25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CW25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="DA25" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB25" t="n">
-        <v>5</v>
-      </c>
-      <c r="DC25" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD25" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE25" t="n">
-        <v>0</v>
-      </c>
       <c r="DF25" t="n">
-        <v>24</v>
+        <v>9424</v>
       </c>
       <c r="DG25" t="n">
-        <v>6873</v>
+        <v>0</v>
       </c>
       <c r="DH25" t="n">
-        <v>2551</v>
-      </c>
-      <c r="DI25" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ25" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B26" t="n">
         <v>0</v>
@@ -9617,46 +9461,46 @@
         <v>2645</v>
       </c>
       <c r="BP26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR26" t="n">
         <v>0</v>
       </c>
       <c r="BS26" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="BT26" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="BU26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BV26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BW26" t="n">
         <v>0</v>
       </c>
       <c r="BX26" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="BY26" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="BZ26" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CA26" t="n">
-        <v>4</v>
+        <v>140</v>
       </c>
       <c r="CB26" t="n">
-        <v>140</v>
+        <v>1601</v>
       </c>
       <c r="CC26" t="n">
-        <v>1601</v>
+        <v>0</v>
       </c>
       <c r="CD26" t="n">
         <v>0</v>
@@ -9668,10 +9512,10 @@
         <v>0</v>
       </c>
       <c r="CG26" t="n">
-        <v>0</v>
+        <v>430</v>
       </c>
       <c r="CH26" t="n">
-        <v>430</v>
+        <v>0</v>
       </c>
       <c r="CI26" t="n">
         <v>0</v>
@@ -9683,10 +9527,10 @@
         <v>0</v>
       </c>
       <c r="CL26" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="CM26" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="CN26" t="n">
         <v>0</v>
@@ -9704,16 +9548,16 @@
         <v>0</v>
       </c>
       <c r="CS26" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="CT26" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="CU26" t="n">
-        <v>16</v>
+        <v>132</v>
       </c>
       <c r="CV26" t="n">
-        <v>132</v>
+        <v>0</v>
       </c>
       <c r="CW26" t="n">
         <v>0</v>
@@ -9728,10 +9572,10 @@
         <v>0</v>
       </c>
       <c r="DA26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DB26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DC26" t="n">
         <v>0</v>
@@ -9740,27 +9584,21 @@
         <v>0</v>
       </c>
       <c r="DE26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DF26" t="n">
-        <v>1</v>
+        <v>21219</v>
       </c>
       <c r="DG26" t="n">
-        <v>19861</v>
+        <v>0</v>
       </c>
       <c r="DH26" t="n">
-        <v>1358</v>
-      </c>
-      <c r="DI26" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ26" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B27" t="n">
         <v>6</v>
@@ -9970,10 +9808,10 @@
         <v>0</v>
       </c>
       <c r="BS27" t="n">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="BT27" t="n">
-        <v>111</v>
+        <v>0</v>
       </c>
       <c r="BU27" t="n">
         <v>0</v>
@@ -9985,22 +9823,22 @@
         <v>0</v>
       </c>
       <c r="BX27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BY27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BZ27" t="n">
         <v>0</v>
       </c>
       <c r="CA27" t="n">
-        <v>0</v>
+        <v>516</v>
       </c>
       <c r="CB27" t="n">
-        <v>516</v>
+        <v>4278</v>
       </c>
       <c r="CC27" t="n">
-        <v>4278</v>
+        <v>0</v>
       </c>
       <c r="CD27" t="n">
         <v>0</v>
@@ -10009,13 +9847,13 @@
         <v>0</v>
       </c>
       <c r="CF27" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="CG27" t="n">
-        <v>21</v>
+        <v>3931</v>
       </c>
       <c r="CH27" t="n">
-        <v>3931</v>
+        <v>0</v>
       </c>
       <c r="CI27" t="n">
         <v>0</v>
@@ -10024,22 +9862,22 @@
         <v>0</v>
       </c>
       <c r="CK27" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="CL27" t="n">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="CM27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CN27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CO27" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="CP27" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="CQ27" t="n">
         <v>0</v>
@@ -10048,13 +9886,13 @@
         <v>0</v>
       </c>
       <c r="CS27" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="CT27" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="CU27" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="CV27" t="n">
         <v>0</v>
@@ -10066,10 +9904,10 @@
         <v>0</v>
       </c>
       <c r="CY27" t="n">
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="CZ27" t="n">
-        <v>246</v>
+        <v>0</v>
       </c>
       <c r="DA27" t="n">
         <v>0</v>
@@ -10087,24 +9925,18 @@
         <v>0</v>
       </c>
       <c r="DF27" t="n">
-        <v>0</v>
+        <v>10263</v>
       </c>
       <c r="DG27" t="n">
-        <v>7895</v>
+        <v>0</v>
       </c>
       <c r="DH27" t="n">
-        <v>2368</v>
-      </c>
-      <c r="DI27" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ27" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B28" t="n">
         <v>0</v>
@@ -10311,13 +10143,13 @@
         <v>0</v>
       </c>
       <c r="BR28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS28" t="n">
-        <v>1</v>
+        <v>126</v>
       </c>
       <c r="BT28" t="n">
-        <v>126</v>
+        <v>0</v>
       </c>
       <c r="BU28" t="n">
         <v>0</v>
@@ -10338,13 +10170,13 @@
         <v>0</v>
       </c>
       <c r="CA28" t="n">
-        <v>0</v>
+        <v>463</v>
       </c>
       <c r="CB28" t="n">
-        <v>463</v>
+        <v>6726</v>
       </c>
       <c r="CC28" t="n">
-        <v>6726</v>
+        <v>0</v>
       </c>
       <c r="CD28" t="n">
         <v>0</v>
@@ -10356,10 +10188,10 @@
         <v>0</v>
       </c>
       <c r="CG28" t="n">
-        <v>0</v>
+        <v>1142</v>
       </c>
       <c r="CH28" t="n">
-        <v>1142</v>
+        <v>0</v>
       </c>
       <c r="CI28" t="n">
         <v>0</v>
@@ -10368,22 +10200,22 @@
         <v>0</v>
       </c>
       <c r="CK28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CL28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CM28" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CN28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CO28" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="CP28" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="CQ28" t="n">
         <v>0</v>
@@ -10392,13 +10224,13 @@
         <v>0</v>
       </c>
       <c r="CS28" t="n">
-        <v>0</v>
+        <v>269</v>
       </c>
       <c r="CT28" t="n">
-        <v>269</v>
+        <v>4</v>
       </c>
       <c r="CU28" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CV28" t="n">
         <v>0</v>
@@ -10431,24 +10263,18 @@
         <v>0</v>
       </c>
       <c r="DF28" t="n">
-        <v>0</v>
+        <v>9855</v>
       </c>
       <c r="DG28" t="n">
-        <v>8661</v>
+        <v>0</v>
       </c>
       <c r="DH28" t="n">
-        <v>1194</v>
-      </c>
-      <c r="DI28" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ28" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B29" t="n">
         <v>0</v>
@@ -10646,49 +10472,49 @@
         <v>1</v>
       </c>
       <c r="BO29" t="n">
-        <v>14063</v>
+        <v>14064</v>
       </c>
       <c r="BP29" t="n">
         <v>1</v>
       </c>
       <c r="BQ29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR29" t="n">
         <v>0</v>
       </c>
       <c r="BS29" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="BT29" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="BU29" t="n">
         <v>0</v>
       </c>
       <c r="BV29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA29" t="n">
-        <v>1</v>
+        <v>465</v>
       </c>
       <c r="CB29" t="n">
-        <v>465</v>
+        <v>5850</v>
       </c>
       <c r="CC29" t="n">
-        <v>5850</v>
+        <v>0</v>
       </c>
       <c r="CD29" t="n">
         <v>0</v>
@@ -10697,13 +10523,13 @@
         <v>0</v>
       </c>
       <c r="CF29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG29" t="n">
-        <v>1</v>
+        <v>578</v>
       </c>
       <c r="CH29" t="n">
-        <v>578</v>
+        <v>0</v>
       </c>
       <c r="CI29" t="n">
         <v>0</v>
@@ -10715,19 +10541,19 @@
         <v>0</v>
       </c>
       <c r="CL29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CM29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CN29" t="n">
         <v>0</v>
       </c>
       <c r="CO29" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="CP29" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="CQ29" t="n">
         <v>0</v>
@@ -10736,19 +10562,19 @@
         <v>0</v>
       </c>
       <c r="CS29" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="CT29" t="n">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="CU29" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="CV29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CW29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CX29" t="n">
         <v>0</v>
@@ -10760,10 +10586,10 @@
         <v>0</v>
       </c>
       <c r="DA29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DB29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DC29" t="n">
         <v>0</v>
@@ -10775,24 +10601,18 @@
         <v>0</v>
       </c>
       <c r="DF29" t="n">
-        <v>0</v>
+        <v>7602</v>
       </c>
       <c r="DG29" t="n">
-        <v>6309</v>
+        <v>0</v>
       </c>
       <c r="DH29" t="n">
-        <v>1293</v>
-      </c>
-      <c r="DI29" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ29" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B30" t="n">
         <v>2</v>
@@ -11002,10 +10822,10 @@
         <v>0</v>
       </c>
       <c r="BS30" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="BT30" t="n">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="BU30" t="n">
         <v>0</v>
@@ -11017,22 +10837,22 @@
         <v>0</v>
       </c>
       <c r="BX30" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BY30" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BZ30" t="n">
         <v>0</v>
       </c>
       <c r="CA30" t="n">
-        <v>0</v>
+        <v>6998</v>
       </c>
       <c r="CB30" t="n">
-        <v>6998</v>
+        <v>7466</v>
       </c>
       <c r="CC30" t="n">
-        <v>7466</v>
+        <v>0</v>
       </c>
       <c r="CD30" t="n">
         <v>0</v>
@@ -11044,10 +10864,10 @@
         <v>0</v>
       </c>
       <c r="CG30" t="n">
-        <v>0</v>
+        <v>882</v>
       </c>
       <c r="CH30" t="n">
-        <v>882</v>
+        <v>0</v>
       </c>
       <c r="CI30" t="n">
         <v>0</v>
@@ -11068,46 +10888,46 @@
         <v>0</v>
       </c>
       <c r="CO30" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="CP30" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="CQ30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CR30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CS30" t="n">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="CT30" t="n">
-        <v>61</v>
+        <v>5</v>
       </c>
       <c r="CU30" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV30" t="n">
+        <v>2</v>
+      </c>
+      <c r="CW30" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX30" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY30" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ30" t="n">
         <v>5</v>
       </c>
-      <c r="CV30" t="n">
-        <v>0</v>
-      </c>
-      <c r="CW30" t="n">
-        <v>2</v>
-      </c>
-      <c r="CX30" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY30" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ30" t="n">
-        <v>0</v>
-      </c>
       <c r="DA30" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="DB30" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="DC30" t="n">
         <v>0</v>
@@ -11119,24 +10939,18 @@
         <v>0</v>
       </c>
       <c r="DF30" t="n">
-        <v>0</v>
+        <v>8495</v>
       </c>
       <c r="DG30" t="n">
-        <v>5903</v>
+        <v>0</v>
       </c>
       <c r="DH30" t="n">
-        <v>2592</v>
-      </c>
-      <c r="DI30" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ30" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B31" t="n">
         <v>0</v>
@@ -11340,43 +11154,43 @@
         <v>0</v>
       </c>
       <c r="BQ31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR31" t="n">
         <v>1</v>
       </c>
       <c r="BS31" t="n">
-        <v>1</v>
+        <v>245</v>
       </c>
       <c r="BT31" t="n">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="BU31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BV31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BW31" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BX31" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="BY31" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="BZ31" t="n">
         <v>0</v>
       </c>
       <c r="CA31" t="n">
-        <v>0</v>
+        <v>608</v>
       </c>
       <c r="CB31" t="n">
-        <v>608</v>
+        <v>5860</v>
       </c>
       <c r="CC31" t="n">
-        <v>5860</v>
+        <v>0</v>
       </c>
       <c r="CD31" t="n">
         <v>0</v>
@@ -11388,10 +11202,10 @@
         <v>0</v>
       </c>
       <c r="CG31" t="n">
-        <v>0</v>
+        <v>1094</v>
       </c>
       <c r="CH31" t="n">
-        <v>1094</v>
+        <v>0</v>
       </c>
       <c r="CI31" t="n">
         <v>0</v>
@@ -11400,22 +11214,22 @@
         <v>0</v>
       </c>
       <c r="CK31" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CL31" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CM31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CN31" t="n">
         <v>0</v>
       </c>
       <c r="CO31" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="CP31" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="CQ31" t="n">
         <v>0</v>
@@ -11424,13 +11238,13 @@
         <v>0</v>
       </c>
       <c r="CS31" t="n">
-        <v>0</v>
+        <v>735</v>
       </c>
       <c r="CT31" t="n">
-        <v>735</v>
+        <v>41</v>
       </c>
       <c r="CU31" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="CV31" t="n">
         <v>0</v>
@@ -11442,16 +11256,16 @@
         <v>0</v>
       </c>
       <c r="CY31" t="n">
-        <v>0</v>
+        <v>251</v>
       </c>
       <c r="CZ31" t="n">
-        <v>251</v>
+        <v>0</v>
       </c>
       <c r="DA31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DB31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DC31" t="n">
         <v>0</v>
@@ -11463,24 +11277,18 @@
         <v>0</v>
       </c>
       <c r="DF31" t="n">
-        <v>0</v>
+        <v>14891</v>
       </c>
       <c r="DG31" t="n">
-        <v>11438</v>
+        <v>0</v>
       </c>
       <c r="DH31" t="n">
-        <v>3453</v>
-      </c>
-      <c r="DI31" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ31" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B32" t="n">
         <v>0</v>
@@ -11684,16 +11492,16 @@
         <v>0</v>
       </c>
       <c r="BQ32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS32" t="n">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="BT32" t="n">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="BU32" t="n">
         <v>0</v>
@@ -11711,31 +11519,31 @@
         <v>0</v>
       </c>
       <c r="BZ32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA32" t="n">
-        <v>1</v>
+        <v>481</v>
       </c>
       <c r="CB32" t="n">
-        <v>481</v>
+        <v>2673</v>
       </c>
       <c r="CC32" t="n">
-        <v>2673</v>
+        <v>0</v>
       </c>
       <c r="CD32" t="n">
         <v>0</v>
       </c>
       <c r="CE32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG32" t="n">
-        <v>0</v>
+        <v>790</v>
       </c>
       <c r="CH32" t="n">
-        <v>790</v>
+        <v>0</v>
       </c>
       <c r="CI32" t="n">
         <v>0</v>
@@ -11747,19 +11555,19 @@
         <v>0</v>
       </c>
       <c r="CL32" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CM32" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CN32" t="n">
         <v>0</v>
       </c>
       <c r="CO32" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="CP32" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="CQ32" t="n">
         <v>0</v>
@@ -11768,13 +11576,13 @@
         <v>0</v>
       </c>
       <c r="CS32" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="CT32" t="n">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="CU32" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="CV32" t="n">
         <v>0</v>
@@ -11795,36 +11603,30 @@
         <v>0</v>
       </c>
       <c r="DB32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DC32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DD32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DE32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF32" t="n">
-        <v>0</v>
+        <v>14185</v>
       </c>
       <c r="DG32" t="n">
-        <v>10665</v>
+        <v>0</v>
       </c>
       <c r="DH32" t="n">
-        <v>3520</v>
-      </c>
-      <c r="DI32" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ32" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B33" t="n">
         <v>2</v>
@@ -12034,141 +11836,135 @@
         <v>0</v>
       </c>
       <c r="BS33" t="n">
-        <v>0</v>
+        <v>172</v>
       </c>
       <c r="BT33" t="n">
-        <v>172</v>
+        <v>0</v>
       </c>
       <c r="BU33" t="n">
         <v>0</v>
       </c>
       <c r="BV33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BW33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BX33" t="n">
+        <v>7</v>
+      </c>
+      <c r="BY33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ33" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA33" t="n">
+        <v>689</v>
+      </c>
+      <c r="CB33" t="n">
+        <v>7881</v>
+      </c>
+      <c r="CC33" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD33" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE33" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF33" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG33" t="n">
+        <v>787</v>
+      </c>
+      <c r="CH33" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI33" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ33" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK33" t="n">
+        <v>3</v>
+      </c>
+      <c r="CL33" t="n">
+        <v>14</v>
+      </c>
+      <c r="CM33" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN33" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO33" t="n">
+        <v>275</v>
+      </c>
+      <c r="CP33" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ33" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR33" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS33" t="n">
+        <v>46</v>
+      </c>
+      <c r="CT33" t="n">
+        <v>12</v>
+      </c>
+      <c r="CU33" t="n">
+        <v>2</v>
+      </c>
+      <c r="CV33" t="n">
+        <v>2</v>
+      </c>
+      <c r="CW33" t="n">
+        <v>3</v>
+      </c>
+      <c r="CX33" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY33" t="n">
         <v>4</v>
       </c>
-      <c r="BY33" t="n">
-        <v>7</v>
-      </c>
-      <c r="BZ33" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA33" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB33" t="n">
-        <v>689</v>
-      </c>
-      <c r="CC33" t="n">
-        <v>7881</v>
-      </c>
-      <c r="CD33" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE33" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF33" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG33" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH33" t="n">
-        <v>787</v>
-      </c>
-      <c r="CI33" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ33" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK33" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL33" t="n">
-        <v>3</v>
-      </c>
-      <c r="CM33" t="n">
-        <v>14</v>
-      </c>
-      <c r="CN33" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO33" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP33" t="n">
-        <v>275</v>
-      </c>
-      <c r="CQ33" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR33" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS33" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT33" t="n">
-        <v>46</v>
-      </c>
-      <c r="CU33" t="n">
-        <v>12</v>
-      </c>
-      <c r="CV33" t="n">
-        <v>2</v>
-      </c>
-      <c r="CW33" t="n">
-        <v>2</v>
-      </c>
-      <c r="CX33" t="n">
-        <v>3</v>
-      </c>
-      <c r="CY33" t="n">
-        <v>0</v>
-      </c>
       <c r="CZ33" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="DA33" t="n">
         <v>1</v>
       </c>
       <c r="DB33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DC33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DD33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE33" t="n">
         <v>0</v>
       </c>
       <c r="DF33" t="n">
-        <v>0</v>
+        <v>10490</v>
       </c>
       <c r="DG33" t="n">
-        <v>7009</v>
+        <v>0</v>
       </c>
       <c r="DH33" t="n">
-        <v>3481</v>
-      </c>
-      <c r="DI33" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ33" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B34" t="n">
         <v>2</v>
@@ -12378,76 +12174,76 @@
         <v>0</v>
       </c>
       <c r="BS34" t="n">
-        <v>0</v>
+        <v>166</v>
       </c>
       <c r="BT34" t="n">
-        <v>166</v>
+        <v>1</v>
       </c>
       <c r="BU34" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BV34" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="BW34" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="BX34" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="BY34" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="BZ34" t="n">
         <v>0</v>
       </c>
       <c r="CA34" t="n">
-        <v>0</v>
+        <v>1556</v>
       </c>
       <c r="CB34" t="n">
-        <v>1556</v>
+        <v>8993</v>
       </c>
       <c r="CC34" t="n">
-        <v>8993</v>
+        <v>0</v>
       </c>
       <c r="CD34" t="n">
         <v>0</v>
       </c>
       <c r="CE34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG34" t="n">
-        <v>0</v>
+        <v>676</v>
       </c>
       <c r="CH34" t="n">
-        <v>676</v>
+        <v>0</v>
       </c>
       <c r="CI34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CJ34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CL34" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="CM34" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="CN34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CO34" t="n">
-        <v>1</v>
+        <v>288</v>
       </c>
       <c r="CP34" t="n">
-        <v>288</v>
+        <v>0</v>
       </c>
       <c r="CQ34" t="n">
         <v>0</v>
@@ -12456,13 +12252,13 @@
         <v>0</v>
       </c>
       <c r="CS34" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="CT34" t="n">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="CU34" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="CV34" t="n">
         <v>0</v>
@@ -12480,10 +12276,10 @@
         <v>0</v>
       </c>
       <c r="DA34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DB34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DC34" t="n">
         <v>0</v>
@@ -12492,27 +12288,21 @@
         <v>0</v>
       </c>
       <c r="DE34" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="DF34" t="n">
-        <v>20</v>
+        <v>10242</v>
       </c>
       <c r="DG34" t="n">
-        <v>7387</v>
+        <v>0</v>
       </c>
       <c r="DH34" t="n">
-        <v>2855</v>
-      </c>
-      <c r="DI34" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ34" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B35" t="n">
         <v>0</v>
@@ -12713,46 +12503,46 @@
         <v>6544</v>
       </c>
       <c r="BP35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS35" t="n">
-        <v>1</v>
+        <v>155</v>
       </c>
       <c r="BT35" t="n">
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="BU35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BV35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BW35" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BX35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BY35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BZ35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CA35" t="n">
-        <v>2</v>
+        <v>548</v>
       </c>
       <c r="CB35" t="n">
-        <v>548</v>
+        <v>4319</v>
       </c>
       <c r="CC35" t="n">
-        <v>4319</v>
+        <v>0</v>
       </c>
       <c r="CD35" t="n">
         <v>0</v>
@@ -12764,10 +12554,10 @@
         <v>0</v>
       </c>
       <c r="CG35" t="n">
-        <v>0</v>
+        <v>4048</v>
       </c>
       <c r="CH35" t="n">
-        <v>4048</v>
+        <v>0</v>
       </c>
       <c r="CI35" t="n">
         <v>0</v>
@@ -12779,55 +12569,55 @@
         <v>0</v>
       </c>
       <c r="CL35" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CM35" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN35" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO35" t="n">
+        <v>20</v>
+      </c>
+      <c r="CP35" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ35" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR35" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS35" t="n">
+        <v>64</v>
+      </c>
+      <c r="CT35" t="n">
+        <v>13</v>
+      </c>
+      <c r="CU35" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV35" t="n">
+        <v>1</v>
+      </c>
+      <c r="CW35" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX35" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY35" t="n">
         <v>3</v>
       </c>
-      <c r="CN35" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO35" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP35" t="n">
-        <v>20</v>
-      </c>
-      <c r="CQ35" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR35" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS35" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT35" t="n">
-        <v>64</v>
-      </c>
-      <c r="CU35" t="n">
-        <v>13</v>
-      </c>
-      <c r="CV35" t="n">
-        <v>0</v>
-      </c>
-      <c r="CW35" t="n">
-        <v>1</v>
-      </c>
-      <c r="CX35" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY35" t="n">
-        <v>0</v>
-      </c>
       <c r="CZ35" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="DA35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DB35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DC35" t="n">
         <v>0</v>
@@ -12839,24 +12629,18 @@
         <v>0</v>
       </c>
       <c r="DF35" t="n">
-        <v>0</v>
+        <v>11471</v>
       </c>
       <c r="DG35" t="n">
-        <v>7669</v>
+        <v>0</v>
       </c>
       <c r="DH35" t="n">
-        <v>3802</v>
-      </c>
-      <c r="DI35" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ35" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B36" t="n">
         <v>0</v>
@@ -13066,10 +12850,10 @@
         <v>0</v>
       </c>
       <c r="BS36" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="BT36" t="n">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="BU36" t="n">
         <v>0</v>
@@ -13081,22 +12865,22 @@
         <v>0</v>
       </c>
       <c r="BX36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ36" t="n">
         <v>0</v>
       </c>
       <c r="CA36" t="n">
-        <v>0</v>
+        <v>732</v>
       </c>
       <c r="CB36" t="n">
-        <v>732</v>
+        <v>3497</v>
       </c>
       <c r="CC36" t="n">
-        <v>3497</v>
+        <v>0</v>
       </c>
       <c r="CD36" t="n">
         <v>0</v>
@@ -13108,10 +12892,10 @@
         <v>0</v>
       </c>
       <c r="CG36" t="n">
-        <v>0</v>
+        <v>736</v>
       </c>
       <c r="CH36" t="n">
-        <v>736</v>
+        <v>0</v>
       </c>
       <c r="CI36" t="n">
         <v>0</v>
@@ -13120,37 +12904,37 @@
         <v>0</v>
       </c>
       <c r="CK36" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CL36" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CM36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CN36" t="n">
         <v>0</v>
       </c>
       <c r="CO36" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="CP36" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="CQ36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CR36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CS36" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="CT36" t="n">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="CU36" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CV36" t="n">
         <v>0</v>
@@ -13168,39 +12952,33 @@
         <v>0</v>
       </c>
       <c r="DA36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DB36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DC36" t="n">
         <v>0</v>
       </c>
       <c r="DD36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DE36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF36" t="n">
-        <v>0</v>
+        <v>7589</v>
       </c>
       <c r="DG36" t="n">
-        <v>5444</v>
+        <v>0</v>
       </c>
       <c r="DH36" t="n">
-        <v>2145</v>
-      </c>
-      <c r="DI36" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ36" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B37" t="n">
         <v>1</v>
@@ -13410,10 +13188,10 @@
         <v>0</v>
       </c>
       <c r="BS37" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="BT37" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="BU37" t="n">
         <v>0</v>
@@ -13425,49 +13203,49 @@
         <v>0</v>
       </c>
       <c r="BX37" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BY37" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BZ37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA37" t="n">
-        <v>1</v>
+        <v>1091</v>
       </c>
       <c r="CB37" t="n">
-        <v>1091</v>
+        <v>7674</v>
       </c>
       <c r="CC37" t="n">
-        <v>7674</v>
+        <v>0</v>
       </c>
       <c r="CD37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CE37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CF37" t="n">
         <v>0</v>
       </c>
       <c r="CG37" t="n">
-        <v>0</v>
+        <v>1034</v>
       </c>
       <c r="CH37" t="n">
-        <v>1034</v>
+        <v>0</v>
       </c>
       <c r="CI37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CJ37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK37" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CL37" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CM37" t="n">
         <v>0</v>
@@ -13476,25 +13254,25 @@
         <v>0</v>
       </c>
       <c r="CO37" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="CP37" t="n">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="CQ37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CR37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CS37" t="n">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="CT37" t="n">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="CU37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CV37" t="n">
         <v>0</v>
@@ -13509,10 +13287,10 @@
         <v>0</v>
       </c>
       <c r="CZ37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DA37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DB37" t="n">
         <v>0</v>
@@ -13527,24 +13305,18 @@
         <v>0</v>
       </c>
       <c r="DF37" t="n">
-        <v>0</v>
+        <v>9026</v>
       </c>
       <c r="DG37" t="n">
-        <v>5995</v>
+        <v>0</v>
       </c>
       <c r="DH37" t="n">
-        <v>3031</v>
-      </c>
-      <c r="DI37" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ37" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B38" t="n">
         <v>1</v>
@@ -13751,40 +13523,40 @@
         <v>0</v>
       </c>
       <c r="BR38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS38" t="n">
-        <v>1</v>
+        <v>92</v>
       </c>
       <c r="BT38" t="n">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="BU38" t="n">
         <v>0</v>
       </c>
       <c r="BV38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX38" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="BY38" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="BZ38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA38" t="n">
-        <v>1</v>
+        <v>1042</v>
       </c>
       <c r="CB38" t="n">
-        <v>1042</v>
+        <v>4580</v>
       </c>
       <c r="CC38" t="n">
-        <v>4580</v>
+        <v>0</v>
       </c>
       <c r="CD38" t="n">
         <v>0</v>
@@ -13796,22 +13568,22 @@
         <v>0</v>
       </c>
       <c r="CG38" t="n">
-        <v>0</v>
+        <v>1918</v>
       </c>
       <c r="CH38" t="n">
-        <v>1918</v>
+        <v>0</v>
       </c>
       <c r="CI38" t="n">
         <v>0</v>
       </c>
       <c r="CJ38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CK38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CL38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CM38" t="n">
         <v>0</v>
@@ -13820,25 +13592,25 @@
         <v>0</v>
       </c>
       <c r="CO38" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="CP38" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="CQ38" t="n">
         <v>0</v>
       </c>
       <c r="CR38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CS38" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="CT38" t="n">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="CU38" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="CV38" t="n">
         <v>0</v>
@@ -13871,24 +13643,18 @@
         <v>0</v>
       </c>
       <c r="DF38" t="n">
-        <v>0</v>
+        <v>12205</v>
       </c>
       <c r="DG38" t="n">
-        <v>7658</v>
+        <v>0</v>
       </c>
       <c r="DH38" t="n">
-        <v>4547</v>
-      </c>
-      <c r="DI38" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ38" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B39" t="n">
         <v>0</v>
@@ -14098,10 +13864,10 @@
         <v>0</v>
       </c>
       <c r="BS39" t="n">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="BT39" t="n">
-        <v>149</v>
+        <v>0</v>
       </c>
       <c r="BU39" t="n">
         <v>0</v>
@@ -14113,22 +13879,22 @@
         <v>0</v>
       </c>
       <c r="BX39" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="BY39" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="BZ39" t="n">
         <v>0</v>
       </c>
       <c r="CA39" t="n">
-        <v>0</v>
+        <v>528</v>
       </c>
       <c r="CB39" t="n">
-        <v>528</v>
+        <v>2639</v>
       </c>
       <c r="CC39" t="n">
-        <v>2639</v>
+        <v>0</v>
       </c>
       <c r="CD39" t="n">
         <v>0</v>
@@ -14140,10 +13906,10 @@
         <v>0</v>
       </c>
       <c r="CG39" t="n">
-        <v>0</v>
+        <v>1931</v>
       </c>
       <c r="CH39" t="n">
-        <v>1931</v>
+        <v>0</v>
       </c>
       <c r="CI39" t="n">
         <v>0</v>
@@ -14152,10 +13918,10 @@
         <v>0</v>
       </c>
       <c r="CK39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CL39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CM39" t="n">
         <v>0</v>
@@ -14164,10 +13930,10 @@
         <v>0</v>
       </c>
       <c r="CO39" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CP39" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CQ39" t="n">
         <v>0</v>
@@ -14176,13 +13942,13 @@
         <v>0</v>
       </c>
       <c r="CS39" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="CT39" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="CU39" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="CV39" t="n">
         <v>0</v>
@@ -14200,39 +13966,33 @@
         <v>0</v>
       </c>
       <c r="DA39" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="DB39" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="DC39" t="n">
         <v>1</v>
       </c>
       <c r="DD39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE39" t="n">
         <v>0</v>
       </c>
       <c r="DF39" t="n">
-        <v>0</v>
+        <v>6565</v>
       </c>
       <c r="DG39" t="n">
-        <v>5187</v>
+        <v>0</v>
       </c>
       <c r="DH39" t="n">
-        <v>1378</v>
-      </c>
-      <c r="DI39" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ39" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B40" t="n">
         <v>0</v>
@@ -14439,40 +14199,40 @@
         <v>0</v>
       </c>
       <c r="BR40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS40" t="n">
-        <v>1</v>
+        <v>148</v>
       </c>
       <c r="BT40" t="n">
-        <v>148</v>
+        <v>0</v>
       </c>
       <c r="BU40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BV40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BW40" t="n">
         <v>0</v>
       </c>
       <c r="BX40" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="BY40" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="BZ40" t="n">
         <v>0</v>
       </c>
       <c r="CA40" t="n">
-        <v>0</v>
+        <v>529</v>
       </c>
       <c r="CB40" t="n">
-        <v>529</v>
+        <v>6131</v>
       </c>
       <c r="CC40" t="n">
-        <v>6131</v>
+        <v>0</v>
       </c>
       <c r="CD40" t="n">
         <v>0</v>
@@ -14481,13 +14241,13 @@
         <v>0</v>
       </c>
       <c r="CF40" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="CG40" t="n">
-        <v>13</v>
+        <v>834</v>
       </c>
       <c r="CH40" t="n">
-        <v>834</v>
+        <v>0</v>
       </c>
       <c r="CI40" t="n">
         <v>0</v>
@@ -14496,22 +14256,22 @@
         <v>0</v>
       </c>
       <c r="CK40" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CL40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="CM40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CN40" t="n">
         <v>0</v>
       </c>
       <c r="CO40" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CP40" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CQ40" t="n">
         <v>0</v>
@@ -14520,13 +14280,13 @@
         <v>0</v>
       </c>
       <c r="CS40" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="CT40" t="n">
         <v>9</v>
       </c>
       <c r="CU40" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="CV40" t="n">
         <v>0</v>
@@ -14538,10 +14298,10 @@
         <v>0</v>
       </c>
       <c r="CY40" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="CZ40" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="DA40" t="n">
         <v>0</v>
@@ -14559,24 +14319,18 @@
         <v>0</v>
       </c>
       <c r="DF40" t="n">
-        <v>0</v>
+        <v>6828</v>
       </c>
       <c r="DG40" t="n">
-        <v>5451</v>
+        <v>0</v>
       </c>
       <c r="DH40" t="n">
-        <v>1377</v>
-      </c>
-      <c r="DI40" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ40" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B41" t="n">
         <v>0</v>
@@ -14783,16 +14537,16 @@
         <v>0</v>
       </c>
       <c r="BR41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS41" t="n">
-        <v>1</v>
+        <v>252</v>
       </c>
       <c r="BT41" t="n">
-        <v>252</v>
+        <v>1</v>
       </c>
       <c r="BU41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV41" t="n">
         <v>0</v>
@@ -14801,22 +14555,22 @@
         <v>0</v>
       </c>
       <c r="BX41" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="BY41" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="BZ41" t="n">
         <v>0</v>
       </c>
       <c r="CA41" t="n">
-        <v>0</v>
+        <v>559</v>
       </c>
       <c r="CB41" t="n">
-        <v>559</v>
+        <v>3526</v>
       </c>
       <c r="CC41" t="n">
-        <v>3526</v>
+        <v>0</v>
       </c>
       <c r="CD41" t="n">
         <v>0</v>
@@ -14828,22 +14582,22 @@
         <v>0</v>
       </c>
       <c r="CG41" t="n">
-        <v>0</v>
+        <v>945</v>
       </c>
       <c r="CH41" t="n">
-        <v>945</v>
+        <v>0</v>
       </c>
       <c r="CI41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CJ41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CL41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CM41" t="n">
         <v>0</v>
@@ -14852,10 +14606,10 @@
         <v>0</v>
       </c>
       <c r="CO41" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="CP41" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="CQ41" t="n">
         <v>0</v>
@@ -14864,13 +14618,13 @@
         <v>0</v>
       </c>
       <c r="CS41" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="CT41" t="n">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="CU41" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="CV41" t="n">
         <v>0</v>
@@ -14891,36 +14645,30 @@
         <v>0</v>
       </c>
       <c r="DB41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DC41" t="n">
         <v>1</v>
       </c>
       <c r="DD41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE41" t="n">
         <v>0</v>
       </c>
       <c r="DF41" t="n">
-        <v>0</v>
+        <v>8117</v>
       </c>
       <c r="DG41" t="n">
-        <v>5617</v>
+        <v>0</v>
       </c>
       <c r="DH41" t="n">
-        <v>2500</v>
-      </c>
-      <c r="DI41" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ41" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B42" t="n">
         <v>0</v>
@@ -15118,10 +14866,10 @@
         <v>1</v>
       </c>
       <c r="BO42" t="n">
-        <v>10359</v>
+        <v>10360</v>
       </c>
       <c r="BP42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ42" t="n">
         <v>0</v>
@@ -15130,10 +14878,10 @@
         <v>0</v>
       </c>
       <c r="BS42" t="n">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="BT42" t="n">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="BU42" t="n">
         <v>0</v>
@@ -15145,22 +14893,22 @@
         <v>0</v>
       </c>
       <c r="BX42" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BY42" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BZ42" t="n">
         <v>0</v>
       </c>
       <c r="CA42" t="n">
-        <v>0</v>
+        <v>282</v>
       </c>
       <c r="CB42" t="n">
-        <v>282</v>
+        <v>3013</v>
       </c>
       <c r="CC42" t="n">
-        <v>3013</v>
+        <v>0</v>
       </c>
       <c r="CD42" t="n">
         <v>0</v>
@@ -15172,10 +14920,10 @@
         <v>0</v>
       </c>
       <c r="CG42" t="n">
-        <v>0</v>
+        <v>1540</v>
       </c>
       <c r="CH42" t="n">
-        <v>1540</v>
+        <v>0</v>
       </c>
       <c r="CI42" t="n">
         <v>0</v>
@@ -15187,34 +14935,34 @@
         <v>0</v>
       </c>
       <c r="CL42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CM42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CN42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CO42" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="CP42" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="CQ42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CR42" t="n">
         <v>0</v>
       </c>
       <c r="CS42" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="CT42" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="CU42" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="CV42" t="n">
         <v>0</v>
@@ -15232,10 +14980,10 @@
         <v>0</v>
       </c>
       <c r="DA42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DB42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DC42" t="n">
         <v>0</v>
@@ -15247,24 +14995,18 @@
         <v>0</v>
       </c>
       <c r="DF42" t="n">
-        <v>0</v>
+        <v>6704</v>
       </c>
       <c r="DG42" t="n">
-        <v>5450</v>
+        <v>0</v>
       </c>
       <c r="DH42" t="n">
-        <v>1254</v>
-      </c>
-      <c r="DI42" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ42" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B43" t="n">
         <v>0</v>
@@ -15474,10 +15216,10 @@
         <v>0</v>
       </c>
       <c r="BS43" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="BT43" t="n">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="BU43" t="n">
         <v>0</v>
@@ -15489,25 +15231,25 @@
         <v>0</v>
       </c>
       <c r="BX43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BY43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BZ43" t="n">
         <v>0</v>
       </c>
       <c r="CA43" t="n">
-        <v>0</v>
+        <v>780</v>
       </c>
       <c r="CB43" t="n">
-        <v>780</v>
+        <v>3483</v>
       </c>
       <c r="CC43" t="n">
-        <v>3483</v>
+        <v>1</v>
       </c>
       <c r="CD43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE43" t="n">
         <v>0</v>
@@ -15516,10 +15258,10 @@
         <v>0</v>
       </c>
       <c r="CG43" t="n">
-        <v>0</v>
+        <v>3309</v>
       </c>
       <c r="CH43" t="n">
-        <v>3309</v>
+        <v>0</v>
       </c>
       <c r="CI43" t="n">
         <v>0</v>
@@ -15540,10 +15282,10 @@
         <v>0</v>
       </c>
       <c r="CO43" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CP43" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CQ43" t="n">
         <v>0</v>
@@ -15552,13 +15294,13 @@
         <v>0</v>
       </c>
       <c r="CS43" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="CT43" t="n">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="CU43" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="CV43" t="n">
         <v>0</v>
@@ -15570,10 +15312,10 @@
         <v>0</v>
       </c>
       <c r="CY43" t="n">
-        <v>0</v>
+        <v>329</v>
       </c>
       <c r="CZ43" t="n">
-        <v>329</v>
+        <v>0</v>
       </c>
       <c r="DA43" t="n">
         <v>0</v>
@@ -15591,24 +15333,18 @@
         <v>0</v>
       </c>
       <c r="DF43" t="n">
-        <v>0</v>
+        <v>8731</v>
       </c>
       <c r="DG43" t="n">
-        <v>7265</v>
+        <v>0</v>
       </c>
       <c r="DH43" t="n">
-        <v>1466</v>
-      </c>
-      <c r="DI43" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B44" t="n">
         <v>0</v>
@@ -15818,52 +15554,52 @@
         <v>0</v>
       </c>
       <c r="BS44" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="BT44" t="n">
-        <v>130</v>
+        <v>7</v>
       </c>
       <c r="BU44" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="BV44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW44" t="n">
         <v>0</v>
       </c>
       <c r="BX44" t="n">
-        <v>0</v>
+        <v>1541</v>
       </c>
       <c r="BY44" t="n">
-        <v>1541</v>
+        <v>0</v>
       </c>
       <c r="BZ44" t="n">
         <v>0</v>
       </c>
       <c r="CA44" t="n">
-        <v>0</v>
+        <v>1041</v>
       </c>
       <c r="CB44" t="n">
-        <v>1041</v>
+        <v>1588</v>
       </c>
       <c r="CC44" t="n">
-        <v>1588</v>
+        <v>0</v>
       </c>
       <c r="CD44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CE44" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CF44" t="n">
         <v>0</v>
       </c>
       <c r="CG44" t="n">
-        <v>0</v>
+        <v>4226</v>
       </c>
       <c r="CH44" t="n">
-        <v>4226</v>
+        <v>0</v>
       </c>
       <c r="CI44" t="n">
         <v>0</v>
@@ -15872,46 +15608,46 @@
         <v>0</v>
       </c>
       <c r="CK44" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CL44" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CM44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CN44" t="n">
         <v>0</v>
       </c>
       <c r="CO44" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="CP44" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ44" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR44" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS44" t="n">
         <v>13</v>
-      </c>
-      <c r="CQ44" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR44" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS44" t="n">
-        <v>0</v>
       </c>
       <c r="CT44" t="n">
         <v>13</v>
       </c>
       <c r="CU44" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="CV44" t="n">
         <v>0</v>
       </c>
       <c r="CW44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CX44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CY44" t="n">
         <v>0</v>
@@ -15926,27 +15662,21 @@
         <v>0</v>
       </c>
       <c r="DC44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DD44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="DE44" t="n">
         <v>0</v>
       </c>
       <c r="DF44" t="n">
-        <v>0</v>
+        <v>6458</v>
       </c>
       <c r="DG44" t="n">
-        <v>4475</v>
+        <v>0</v>
       </c>
       <c r="DH44" t="n">
-        <v>1983</v>
-      </c>
-      <c r="DI44" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ44" t="n">
         <v>0</v>
       </c>
     </row>
